--- a/auto/data/8_競品分析_siemens.xlsx
+++ b/auto/data/8_競品分析_siemens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E298"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Siemens or Heidenhein, DMU 50 3Gen. (Pros and Cons)</t>
+          <t>siemens 828d basic handewheel setup.. Help me.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-02-28T04:47:12.691Z</t>
+          <t>2024-11-15T06:41:47.611Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1b1xg7x/siemens_or_heidenhein_dmu_50_3gen_pros_and_cons/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1grqey0/siemens_828d_basic_handewheel_setup_help_me/</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>siemens 828d basic handewheel setup.. Help me.</t>
+          <t>can someone help me with this alarm . siemens 810d</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>can someone help me with this alarm . siemens 810d</t>
+          <t>Siemens HMI Buttons Doesn't Work</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-11-15T06:41:47.611Z</t>
+          <t>2024-09-16T14:17:46.782Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1grqey0/siemens_828d_basic_handewheel_setup_help_me/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fi5sn5/can_someone_help_me_with_this_alarm_siemens_810d/</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>New machine day. Jyoti DX200 12B, Siemens control</t>
+          <t>Siemens, Heidenhain or Fanuc I Plus control?</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-09-16T14:17:46.782Z</t>
+          <t>2023-03-25T09:07:29.225Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fi5sn5/can_someone_help_me_with_this_alarm_siemens_810d/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/121g6yz/siemens_hmi_buttons_doesnt_work/</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Siemens, Heidenhain or Fanuc I Plus control?</t>
+          <t>Machine tool brands that have Siemens Sinumerik controls?</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-07-06T16:28:50.766Z</t>
+          <t>2023-10-27T20:09:36.093Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14se9nq/new_machine_day_jyoti_dx200_12b_siemens_control/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/17hwacp/siemens_heidenhain_or_fanuc_i_plus_control/</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Siemens Shopmill 828 or 828D?</t>
+          <t>Siemens or Heidenhein, DMU 50 3Gen. (Pros and Cons)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-10-27T20:09:36.093Z</t>
+          <t>2023-01-20T17:59:02.491Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17hwacp/siemens_heidenhain_or_fanuc_i_plus_control/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/10h3k99/machine_tool_brands_that_have_siemens_sinumerik/</t>
         </is>
       </c>
     </row>
@@ -666,17 +666,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Siemens 840d controller won't turn off spindle coolant</t>
+          <t>Siemens 828D help required</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-01-18T05:40:06.407Z</t>
+          <t>2024-02-28T04:47:12.691Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/s6py46/siemens_shopmill_828_or_828d/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1b1xg7x/siemens_or_heidenhein_dmu_50_3gen_pros_and_cons/</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2020-05-16T14:45:37.964Z</t>
+          <t>2022-08-04T14:31:08.963Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/gkvrvv/siemens_840d_controller_wont_turn_off_spindle/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/wg2qk6/siemens_828d_help_required/</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Resources for learning Siemens Sinumerik (808 I believe)?</t>
+          <t>Where can i find machine working time on siemens sinumerik 820D?</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-07-23T13:51:32.946Z</t>
+          <t>2020-05-13T12:25:21.438Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/w64ipr/resources_for_learning_siemens_sinumerik_808_i/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/giy0sf/where_can_i_find_machine_working_time_on_siemens/</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Difference between Siemens PCU50 vs Operator Panel</t>
+          <t>New machine day. Jyoti DX200 12B, Siemens control</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-01-24T07:43:49.930Z</t>
+          <t>2023-07-06T16:28:50.766Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/19ebsxx/difference_between_siemens_pcu50_vs_operator_panel/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/14se9nq/new_machine_day_jyoti_dx200_12b_siemens_control/</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Anyone know how to program a wyssbrod mill with Siemens controls</t>
+          <t>Siemens 840d controller won't turn off spindle coolant</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-11-02T15:47:32.233Z</t>
+          <t>2020-05-16T14:45:37.964Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/yk8q5f/anyone_know_how_to_program_a_wyssbrod_mill_with/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/gkvrvv/siemens_840d_controller_wont_turn_off_spindle/</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Siemens NX Lathe Turn Cam Training</t>
+          <t>Resources for learning Siemens Sinumerik (808 I believe)?</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -891,17 +891,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Question for an expert in Siemens controllers for a Lico LNT 42.</t>
+          <t>Difference between Siemens PCU50 vs Operator Panel</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023-12-26T18:41:20.684Z</t>
+          <t>2022-07-23T13:51:32.946Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/18rexg2/siemens_nx_lathe_turn_cam_training/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/w64ipr/resources_for_learning_siemens_sinumerik_808_i/</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Siemens HMI Buttons Doesn't Work</t>
+          <t>Anyone know how to program a wyssbrod mill with Siemens controls</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023-12-14T15:00:41.319Z</t>
+          <t>2024-01-24T07:43:49.930Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/18iai6x/question_for_an_expert_in_siemens_controllers_for/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/19ebsxx/difference_between_siemens_pcu50_vs_operator_panel/</t>
         </is>
       </c>
     </row>
@@ -941,17 +941,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Machine tool brands that have Siemens Sinumerik controls?</t>
+          <t>Siemens NX Lathe Turn Cam Training</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023-03-25T09:07:29.225Z</t>
+          <t>2022-11-02T15:47:32.233Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/121g6yz/siemens_hmi_buttons_doesnt_work/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/yk8q5f/anyone_know_how_to_program_a_wyssbrod_mill_with/</t>
         </is>
       </c>
     </row>
@@ -966,17 +966,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Waiting connection with /NCK. Waiting connection with /PLC/828D. Anybody knows how to solve this problem? Siemens 828D</t>
+          <t>65monoBlock turning with Siemens controller</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023-01-20T17:59:02.491Z</t>
+          <t>2023-12-26T18:41:20.684Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10h3k99/machine_tool_brands_that_have_siemens_sinumerik/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/18rexg2/siemens_nx_lathe_turn_cam_training/</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Question about a Siemens 828D controller for a lathe.</t>
+          <t>Question for an expert in Siemens controllers for a Lico LNT 42.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-07-18T13:23:22.414Z</t>
+          <t>2016-01-30T15:45:29.190Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/w1za5w/waiting_connection_with_nck_waiting_connection/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/43ejk7/65monoblock_turning_with_siemens_controller/</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Where can i find machine working time on siemens sinumerik 820D?</t>
+          <t>Networking Siemens 828D any tips?</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023-04-15T20:09:05.308Z</t>
+          <t>2023-12-14T15:00:41.319Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/12ngvxc/question_about_a_siemens_828d_controller_for_a/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/18iai6x/question_for_an_expert_in_siemens_controllers_for/</t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Siemens 828D help required</t>
+          <t>Machining on a ship</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2020-05-13T12:25:21.438Z</t>
+          <t>2022-11-08T06:13:47.086Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/giy0sf/where_can_i_find_machine_working_time_on_siemens/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ypd3ca/networking_siemens_828d_any_tips/</t>
         </is>
       </c>
     </row>
@@ -1066,17 +1066,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>which company to work at?</t>
+          <t>Retrofitted Machine with Siemens 840D control</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-08-04T14:31:08.963Z</t>
+          <t>2024-12-17T11:53:03.401Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/wg2qk6/siemens_828d_help_required/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1hg8zob/machining_on_a_ship/</t>
         </is>
       </c>
     </row>
@@ -1091,17 +1091,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sinumerik 840d programming</t>
+          <t>Question about a Siemens 828D controller for a lathe.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023-08-28T01:43:17.215Z</t>
+          <t>2020-06-25T10:43:49.064Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1638qbl/which_company_to_work_at/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/hfjybx/retrofitted_machine_with_siemens_840d_control/</t>
         </is>
       </c>
     </row>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sinumerik simulator whist running</t>
+          <t>Help with Fryer MC 30 and Siemens Control</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023-07-03T16:39:02.032Z</t>
+          <t>2023-04-15T20:09:05.308Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14po0ud/sinumerik_840d_programming/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/12ngvxc/question_about_a_siemens_828d_controller_for_a/</t>
         </is>
       </c>
     </row>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>All about the Siemens controller mouse icon</t>
+          <t>No directory siemens 828d</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-10-09T08:13:22.788Z</t>
+          <t>2018-08-08T21:40:14.835Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fzmg52/sinumerik_simulator_whist_running/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/95qcvz/help_with_fryer_mc_30_and_siemens_control/</t>
         </is>
       </c>
     </row>
@@ -1166,17 +1166,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Is anyone familiar with a Siemen's controller called Touch2000</t>
+          <t>ranting about NX</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2019-08-12T17:38:11.661Z</t>
+          <t>2022-11-08T12:39:07.547Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/cpfpey/all_about_the_siemens_controller_mouse_icon/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ypkza9/no_directory_siemens_828d/</t>
         </is>
       </c>
     </row>
@@ -1191,17 +1191,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>How to access to windows explorer from a Sinumerik 840D sl PCU50</t>
+          <t>Siemens 828 help needed</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-04-19T16:12:15.999Z</t>
+          <t>2023-07-01T09:49:25.176Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/u78tit/is_anyone_familiar_with_a_siemens_controller/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/14nr1ra/ranting_about_nx/</t>
         </is>
       </c>
     </row>
@@ -1216,17 +1216,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Networking Siemens 828D any tips?</t>
+          <t>H code</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-01-08T09:15:14.856Z</t>
+          <t>2022-04-22T06:53:14.102Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/191h5at/how_to_access_to_windows_explorer_from_a/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/u98dge/siemens_828_help_needed/</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Siemens 828 help needed</t>
+          <t>Waiting connection with /NCK. Waiting connection with /PLC/828D. Anybody knows how to solve this problem? Siemens 828D</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2022-11-08T06:13:47.086Z</t>
+          <t>2023-10-19T01:38:27.674Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ypd3ca/networking_siemens_828d_any_tips/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/17b7cd0/h_code/</t>
         </is>
       </c>
     </row>
@@ -1266,17 +1266,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>How generate .iso/.MPF files ?</t>
+          <t>NX X CAM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-04-22T06:53:14.102Z</t>
+          <t>2022-07-18T13:23:22.414Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/u98dge/siemens_828_help_needed/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/w1za5w/waiting_connection_with_nck_waiting_connection/</t>
         </is>
       </c>
     </row>
@@ -1291,17 +1291,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No directory siemens 828d</t>
+          <t>Siemens Shopmill 828 or 828D?</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-06-21T15:26:31.734Z</t>
+          <t>2024-12-19T01:18:48.765Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1dl6otm/how_generate_isompf_files/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1hhh91g/nx_x_cam/</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Over a decade in the industry working as a machinist, programmer, designer and integrator. Never seen NX or had anyone require previous knowledge of a specific software or control. Anyone ever use NX?</t>
+          <t>How generate .iso/.MPF files ?</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-11-08T12:39:07.547Z</t>
+          <t>2022-01-18T05:40:06.407Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ypkza9/no_directory_siemens_828d/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/s6py46/siemens_shopmill_828_or_828d/</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>I work as a machinist for the Irish railway, AMA.</t>
+          <t>Is anyone familiar with a Siemen's controller called Touch2000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-04-20T17:30:54.186Z</t>
+          <t>2024-06-21T15:26:31.734Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/u81t0o/over_a_decade_in_the_industry_working_as_a/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1dl6otm/how_generate_isompf_files/</t>
         </is>
       </c>
     </row>
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Best conversational programing language on vertical machining center (p</t>
+          <t>How to access to windows explorer from a Sinumerik 840D sl PCU50</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-05-17T07:50:49.501Z</t>
+          <t>2022-04-19T16:12:15.999Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ctzpck/i_work_as_a_machinist_for_the_irish_railway_ama/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/u78tit/is_anyone_familiar_with_a_siemens_controller/</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1391,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mastercam vs NX Cam</t>
+          <t>All about the Siemens controller mouse icon</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2021-11-30T17:45:30.802Z</t>
+          <t>2024-01-08T09:15:14.856Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/r5suih/best_conversational_programing_language_on/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/191h5at/how_to_access_to_windows_explorer_from_a/</t>
         </is>
       </c>
     </row>
@@ -1416,17 +1416,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Looking for best way to create this feature on a mill</t>
+          <t>Mastercam vs NX Cam</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2015-07-08T16:37:31.753Z</t>
+          <t>2019-08-12T17:38:11.661Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/3ckftf/mastercam_vs_nx_cam/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/cpfpey/all_about_the_siemens_controller_mouse_icon/</t>
         </is>
       </c>
     </row>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Opposite Flank Indeed using L97?</t>
+          <t>Sinumerik 840d programming</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-10-18T16:53:45.337Z</t>
+          <t>2015-07-08T16:37:31.753Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1g6mx3t/looking_for_best_way_to_create_this_feature_on_a/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/3ckftf/mastercam_vs_nx_cam/</t>
         </is>
       </c>
     </row>
@@ -1466,17 +1466,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Imts loot haul</t>
+          <t>How to talk my boss into getting a non-Haas horizontal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023-12-21T11:24:55.614Z</t>
+          <t>2023-07-03T16:39:02.032Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/18nkukg/opposite_flank_indeed_using_l97/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/14po0ud/sinumerik_840d_programming/</t>
         </is>
       </c>
     </row>
@@ -1491,17 +1491,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sinumerik CNC tool offset/wear programing mid cycle</t>
+          <t>Over a decade in the industry working as a machinist, programmer, designer and integrator. Never seen NX or had anyone require previous knowledge of a specific software or control. Anyone ever use NX?</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-09-15T02:30:04.173Z</t>
+          <t>2024-11-24T19:58:17.222Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fh2d9y/imts_loot_haul/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1gyzxh0/how_to_talk_my_boss_into_getting_a_nonhaas/</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Need help with siemens 840d and heidenhain glass scale</t>
+          <t>I work as a machinist for the Irish railway, AMA.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-10-28T14:24:49.472Z</t>
+          <t>2022-04-20T17:30:54.186Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ge3c03/sinumerik_cnc_tool_offsetwear_programing_mid_cycle/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/u81t0o/over_a_decade_in_the_industry_working_as_a/</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SINUMERIK control system is not performing the moves smoothly</t>
+          <t>Sinumerik CNC tool offset/wear programing mid cycle</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2020-06-06T11:15:02.767Z</t>
+          <t>2024-05-17T07:50:49.501Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/gxp4z9/need_help_with_siemens_840d_and_heidenhain_glass/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1ctzpck/i_work_as_a_machinist_for_the_irish_railway_ama/</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1566,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Retrofitted Machine with Siemens 840D control</t>
+          <t>Need help with siemens 840d and heidenhain glass scale</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-08-20T07:33:42.424Z</t>
+          <t>2024-10-28T14:24:49.472Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ewpkyi/sinumerik_control_system_is_not_performing_the/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1ge3c03/sinumerik_cnc_tool_offsetwear_programing_mid_cycle/</t>
         </is>
       </c>
     </row>
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PCU50 from 840D IT Operations</t>
+          <t>which company to work at?</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2020-06-25T10:43:49.064Z</t>
+          <t>2020-06-06T11:15:02.767Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/hfjybx/retrofitted_machine_with_siemens_840d_control/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/gxp4z9/need_help_with_siemens_840d_and_heidenhain_glass/</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Need help with Siemens 810t control</t>
+          <t>Looking for best way to create this feature on a mill</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-11-19T09:29:34.264Z</t>
+          <t>2023-08-28T01:43:17.215Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1gutcnj/pcu50_from_840d_it_operations/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1638qbl/which_company_to_work_at/</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Anyone here run Mori NT, NTX or CTX?</t>
+          <t>Best conversational programing language on vertical machining center (p</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2018-07-30T14:37:31.098Z</t>
+          <t>2024-10-18T16:53:45.337Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/934lcg/need_help_with_siemens_810t_control/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1g6mx3t/looking_for_best_way_to_create_this_feature_on_a/</t>
         </is>
       </c>
     </row>
@@ -1666,17 +1666,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Help with DMU 75</t>
+          <t>Imts loot haul</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2016-02-12T23:13:42.810Z</t>
+          <t>2021-11-30T17:45:30.802Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/45hgod/anyone_here_run_mori_nt_ntx_or_ctx/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/r5suih/best_conversational_programing_language_on/</t>
         </is>
       </c>
     </row>
@@ -1691,17 +1691,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Opinions on Syil x11 vmc.</t>
+          <t>Opposite Flank Indeed using L97?</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-10-02T18:15:57.688Z</t>
+          <t>2024-09-15T02:30:04.173Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fun1xb/help_with_dmu_75/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fh2d9y/imts_loot_haul/</t>
         </is>
       </c>
     </row>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Does anyone actually enjoy working on these? I think it’s a big over complicated bag of Japanese poopoo</t>
+          <t>Need help with Siemens 810t control</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-05-29T12:33:50.891Z</t>
+          <t>2023-12-21T11:24:55.614Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1d3b3qy/opinions_on_syil_x11_vmc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/18nkukg/opposite_flank_indeed_using_l97/</t>
         </is>
       </c>
     </row>
@@ -1741,17 +1741,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Buddy on the lathe has an interesting method to catch the chips!</t>
+          <t>Opinions on Syil x11 vmc.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2021-03-29T10:24:04.348Z</t>
+          <t>2018-07-30T14:37:31.098Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/mfmg8j/does_anyone_actually_enjoy_working_on_these_i/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/934lcg/need_help_with_siemens_810t_control/</t>
         </is>
       </c>
     </row>
@@ -1766,17 +1766,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Repair stripped triple start threads in 16 gauge steel?</t>
+          <t>[Request] Gildemeister CTX 320 Linear: Siemens 840D Powerline</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-02-04T15:30:19.050Z</t>
+          <t>2024-05-29T12:33:50.891Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/skg0ct/buddy_on_the_lathe_has_an_interesting_method_to/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1d3b3qy/opinions_on_syil_x11_vmc/</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Help with Fryer MC 30 and Siemens Control</t>
+          <t>Celos controller stuck in E-stop</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-10-06T13:22:31.337Z</t>
+          <t>2019-03-29T18:32:47.209Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fxgdjn/repair_stripped_triple_start_threads_in_16_gauge/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/b70w9g/request_gildemeister_ctx_320_linear_siemens_840d/</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>240.00 inch Mandrel shaft</t>
+          <t>Repair stripped triple start threads in 16 gauge steel?</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2018-08-08T21:40:14.835Z</t>
+          <t>2024-08-06T00:00:53.424Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/95qcvz/help_with_fryer_mc_30_and_siemens_control/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1el3bdi/celos_controller_stuck_in_estop/</t>
         </is>
       </c>
     </row>
@@ -1841,17 +1841,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>65monoBlock turning with Siemens controller</t>
+          <t>Anyone here run Mori NT, NTX or CTX?</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-10-26T12:01:05.486Z</t>
+          <t>2024-10-06T13:22:31.337Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1gcjgws/24000_inch_mandrel_shaft/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fxgdjn/repair_stripped_triple_start_threads_in_16_gauge/</t>
         </is>
       </c>
     </row>
@@ -1866,17 +1866,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Encountering issues on an old Gildmeister CNC lathe</t>
+          <t>Gotta boost moral with the guys somehow! Whole shop got a turn at it.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2016-01-30T15:45:29.190Z</t>
+          <t>2016-02-12T23:13:42.810Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/43ejk7/65monoblock_turning_with_siemens_controller/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/45hgod/anyone_here_run_mori_nt_ntx_or_ctx/</t>
         </is>
       </c>
     </row>
@@ -1891,17 +1891,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[Request] Gildemeister CTX 320 Linear: Siemens 840D Powerline</t>
+          <t>Kalashnikov Group: Released video of their New Directed Energy Depisition 5-Axis CNC Machine. See it at: https://youtu.be/XX_zBa5jv70</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-09-09T11:58:40.043Z</t>
+          <t>2022-04-01T01:09:06.617Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fcnmvx/encountering_issues_on_an_old_gildmeister_cnc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ttemeg/gotta_boost_moral_with_the_guys_somehow_whole/</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Gotta boost moral with the guys somehow! Whole shop got a turn at it.</t>
+          <t>240.00 inch Mandrel shaft</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2019-03-29T18:32:47.209Z</t>
+          <t>2020-09-08T17:04:43.681Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/b70w9g/request_gildemeister_ctx_320_linear_siemens_840d/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ioxgxd/kalashnikov_group_released_video_of_their_new/</t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Probing issues</t>
+          <t>Anyone know how to set tools on this machine?</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2022-04-01T01:09:06.617Z</t>
+          <t>2024-10-26T12:01:05.486Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ttemeg/gotta_boost_moral_with_the_guys_somehow_whole/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1gcjgws/24000_inch_mandrel_shaft/</t>
         </is>
       </c>
     </row>
@@ -1966,17 +1966,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Obscure 5 axis milling machine</t>
+          <t>Spend My Money: High End (?) Garage/Home Shop Machines</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023-07-25T16:17:50.160Z</t>
+          <t>2022-03-24T20:30:48.293Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/159d2a9/probing_issues/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/tn2jwu/anyone_know_how_to_set_tools_on_this_machine/</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Deckel Maho M codes</t>
+          <t>PCU50 from 840D IT Operations</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-08-19T23:35:22.493Z</t>
+          <t>2024-12-11T23:12:53.084Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ewgotq/obscure_5_axis_milling_machine/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1hc6zpa/spend_my_money_high_end_garagehome_shop_machines/</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2021-11-03T02:52:43.458Z</t>
+          <t>2024-11-19T09:29:34.264Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qll3nr/deckel_maho_m_codes/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1gutcnj/pcu50_from_840d_it_operations/</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>H code</t>
+          <t>Sinumerik 828d : *setting WO in basic reference not allowed*</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2066,17 +2066,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Great work?</t>
+          <t>Obscure 5 axis milling machine</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023-10-19T01:38:27.674Z</t>
+          <t>2019-07-08T16:00:42.139Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17b7cd0/h_code/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/camvuq/sinumerik_828d_setting_wo_in_basic_reference_not/</t>
         </is>
       </c>
     </row>
@@ -2091,17 +2091,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Is there a program to help me practice writing G-code?</t>
+          <t>Dmu 50 alarm line synchronization not possible</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-05-31T09:34:23.879Z</t>
+          <t>2024-08-19T23:35:22.493Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1d4rmk4/great_work/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1ewgotq/obscure_5_axis_milling_machine/</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2121,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023-03-24T11:42:14.170Z</t>
+          <t>2024-11-25T13:33:34.160Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/120horn/is_there_a_program_to_help_me_practice_writing/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1gziws5/dmu_50_alarm_line_synchronization_not_possible/</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Kalashnikov Group: Released video of their New Directed Energy Depisition 5-Axis CNC Machine. See it at: https://youtu.be/XX_zBa5jv70</t>
+          <t>Since i got a lot of people asking on recent posts what machine i use, here are some pictures</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Patience with apprentices</t>
+          <t>Great work?</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2020-09-08T17:04:43.681Z</t>
+          <t>2022-08-26T12:42:40.177Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ioxgxd/kalashnikov_group_released_video_of_their_new/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/wy87oo/since_i_got_a_lot_of_people_asking_on_recent/</t>
         </is>
       </c>
     </row>
@@ -2191,17 +2191,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Any Mazak Iso-Gcode machinists here?</t>
+          <t>Probing issues</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023-09-16T10:24:20.192Z</t>
+          <t>2024-05-31T09:34:23.879Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/16k402d/patience_with_apprentices/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1d4rmk4/great_work/</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2216,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Today I learned, when they pour the pad for a new machine they also pour test pieces to make sure the pad strong enough to support the machine.</t>
+          <t>Patience with apprentices</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023-09-13T05:48:52.478Z</t>
+          <t>2023-07-25T16:17:50.160Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/16hesm8/any_mazak_isogcode_machinists_here/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/159d2a9/probing_issues/</t>
         </is>
       </c>
     </row>
@@ -2241,17 +2241,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Tour Eiffel on cnc</t>
+          <t>I don't know who needs to hear this, but stop putting touch screens on CNCs.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2022-04-15T17:13:44.322Z</t>
+          <t>2023-09-16T10:24:20.192Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/u4cuvr/today_i_learned_when_they_pour_the_pad_for_a_new/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/16k402d/patience_with_apprentices/</t>
         </is>
       </c>
     </row>
@@ -2266,17 +2266,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>22 y/o Swiss programmer just got his first McMaster Catalog!</t>
+          <t>Today I learned, when they pour the pad for a new machine they also pour test pieces to make sure the pad strong enough to support the machine.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2022-06-03T19:22:57.962Z</t>
+          <t>2022-06-22T00:38:11.564Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/v46um7/tour_eiffel_on_cnc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/vhs3gp/i_dont_know_who_needs_to_hear_this_but_stop/</t>
         </is>
       </c>
     </row>
@@ -2291,17 +2291,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Mastercam VS mastercam for solidworks</t>
+          <t>R vs IJK</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-01-23T04:14:41.229Z</t>
+          <t>2022-04-15T17:13:44.322Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/19dfqx1/22_yo_swiss_programmer_just_got_his_first/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/u4cuvr/today_i_learned_when_they_pour_the_pad_for_a_new/</t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Help with dmu monoblock</t>
+          <t>22 y/o Swiss programmer just got his first McMaster Catalog!</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2020-01-07T11:01:30.227Z</t>
+          <t>2021-02-09T18:26:03.206Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ela3zv/mastercam_vs_mastercam_for_solidworks/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/lg9smr/r_vs_ijk/</t>
         </is>
       </c>
     </row>
@@ -2341,17 +2341,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>What software are you using to program 4 and 5 axis?</t>
+          <t>Encountering issues on an old Gildmeister CNC lathe</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-11-05T13:49:11.662Z</t>
+          <t>2024-01-23T04:14:41.229Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1gk732h/help_with_dmu_monoblock/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/19dfqx1/22_yo_swiss_programmer_just_got_his_first/</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-06-29T15:04:32.294Z</t>
+          <t>2024-09-09T11:58:40.043Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1drd779/what_software_are_you_using_to_program_4_and_5/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fcnmvx/encountering_issues_on_an_old_gildmeister_cnc/</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Electrospindle calibration</t>
+          <t>Is there a program to help me practice writing G-code?</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2416,17 +2416,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DMG Mori NLX Owners and Operators</t>
+          <t>Electrospindle calibration</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-10-31T18:37:49.241Z</t>
+          <t>2023-03-24T11:42:14.170Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1gglnwt/electrospindle_calibration/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/120horn/is_there_a_program_to_help_me_practice_writing/</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Dear FANUC enjoyers…</t>
+          <t>Feedrate override knobs</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-10-17T09:52:13.784Z</t>
+          <t>2024-10-31T18:37:49.241Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1g5n7wb/dmg_mori_nlx_owners_and_operators/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1gglnwt/electrospindle_calibration/</t>
         </is>
       </c>
     </row>
@@ -2466,17 +2466,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cnc mill in the home shop</t>
+          <t>XYZ MINI MILL HELP</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-06-04T19:02:45.034Z</t>
+          <t>2023-04-11T21:26:04.071Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1d855w7/dear_fanuc_enjoyers/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/12iy9tm/feedrate_override_knobs/</t>
         </is>
       </c>
     </row>
@@ -2491,17 +2491,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Spindle Speed Issue in Handle &amp; Jog Mode</t>
+          <t>Be dead honest...</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-08-16T02:04:06.073Z</t>
+          <t>2024-12-04T10:53:27.352Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1etd4l8/cnc_mill_in_the_home_shop/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1h6dcl7/xyz_mini_mill_help/</t>
         </is>
       </c>
     </row>
@@ -2516,17 +2516,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>I don't know who needs to hear this, but stop putting touch screens on CNCs.</t>
+          <t>Help with DMU 75</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2022-09-11T09:00:51.712Z</t>
+          <t>2023-07-18T21:09:56.954Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xbdoz5/spindle_speed_issue_in_handle_jog_mode/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/153ai6u/be_dead_honest/</t>
         </is>
       </c>
     </row>
@@ -2541,17 +2541,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DMU50 help!</t>
+          <t>Gross positioning error</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2022-06-22T00:38:11.564Z</t>
+          <t>2024-10-02T18:15:57.688Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/vhs3gp/i_dont_know_who_needs_to_hear_this_but_stop/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fun1xb/help_with_dmu_75/</t>
         </is>
       </c>
     </row>
@@ -2566,17 +2566,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>The truth</t>
+          <t>Bridgeport X drive circuit board - anyone got the diagram?</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2020-02-26T20:37:59.024Z</t>
+          <t>2023-06-09T10:14:52.544Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/f9zswe/dmu50_help/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1451bfe/gross_positioning_error/</t>
         </is>
       </c>
     </row>
@@ -2591,17 +2591,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Coolant nozzle got stuck between the spindle and the tool holder Huron K2x10</t>
+          <t>Post Processors Available</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2020-12-10T00:23:33.978Z</t>
+          <t>2024-12-05T00:37:42.904Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ka4d9s/the_truth/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1h6w533/bridgeport_x_drive_circuit_board_anyone_got_the/</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>cnc210</t>
+          <t>Emco Hyperturn 65 vs DMG CLX450TC</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-10-04T19:02:32.199Z</t>
+          <t>2024-02-24T18:14:03.247Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fw6zsw/coolant_nozzle_got_stuck_between_the_spindle_and/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1az17a1/post_processors_available/</t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Celos controller stuck in E-stop</t>
+          <t>Tormach 1100MX vs SYIL X7 2020</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2022-10-15T12:07:58.314Z</t>
+          <t>2024-11-28T17:56:34.542Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/y4mad2/cnc210/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1h21pfl/emco_hyperturn_65_vs_dmg_clx450tc/</t>
         </is>
       </c>
     </row>
@@ -2666,17 +2666,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>VFD for milling machine</t>
+          <t>Help with dmu monoblock</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-08-06T00:00:53.424Z</t>
+          <t>2021-06-26T08:16:01.410Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1el3bdi/celos_controller_stuck_in_estop/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/o86o9a/tormach_1100mx_vs_syil_x7_2020/</t>
         </is>
       </c>
     </row>
@@ -2691,17 +2691,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>What’s it like learning DMG Mori lathes?</t>
+          <t>Cnc higfeed. Many point vs arcs?</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023-11-21T11:46:12.975Z</t>
+          <t>2024-11-05T13:49:11.662Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/180f4r1/vfd_for_milling_machine/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1gk732h/help_with_dmu_monoblock/</t>
         </is>
       </c>
     </row>
@@ -2716,17 +2716,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Be dead honest...</t>
+          <t>The truth</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-08-08T13:44:22.045Z</t>
+          <t>2024-04-25T03:47:35.665Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1en6cfj/whats_it_like_learning_dmg_mori_lathes/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1cciad1/cnc_higfeed_many_point_vs_arcs/</t>
         </is>
       </c>
     </row>
@@ -2741,17 +2741,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mazak vs Haas?</t>
+          <t>Need some advice about my first Machining center for a shoo</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023-07-18T21:09:56.954Z</t>
+          <t>2020-12-10T00:23:33.978Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/153ai6u/be_dead_honest/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ka4d9s/the_truth/</t>
         </is>
       </c>
     </row>
@@ -2766,17 +2766,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GF Micron MILL E 700U vs Mazak Variaxis C600 vs other?</t>
+          <t>Sinumerik simulator whist running</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2022-06-28T23:19:29.525Z</t>
+          <t>2024-09-06T13:30:17.063Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/vn0tsk/mazak_vs_haas/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1faf8cb/need_some_advice_about_my_first_machining_center/</t>
         </is>
       </c>
     </row>
@@ -2791,17 +2791,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ranting about NX</t>
+          <t>DMU50 help!</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2020-10-05T18:40:48.850Z</t>
+          <t>2024-10-09T08:13:22.788Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/j5p5dl/gf_micron_mill_e_700u_vs_mazak_variaxis_c600_vs/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fzmg52/sinumerik_simulator_whist_running/</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Tormach 1100MX vs SYIL X7 2020</t>
+          <t>DMG Mori NLX Owners and Operators</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023-07-01T09:49:25.176Z</t>
+          <t>2020-02-26T20:37:59.024Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14nr1ra/ranting_about_nx/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/f9zswe/dmu50_help/</t>
         </is>
       </c>
     </row>
@@ -2841,17 +2841,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CNC Opportunities</t>
+          <t>Swiss Turning: FeatureCAM vs SolidCAM vs ESPRIT CAM vs MasterCAM</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2021-06-26T08:16:01.410Z</t>
+          <t>2024-10-17T09:52:13.784Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/o86o9a/tormach_1100mx_vs_syil_x7_2020/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1g5n7wb/dmg_mori_nlx_owners_and_operators/</t>
         </is>
       </c>
     </row>
@@ -2866,17 +2866,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Has anyone used or know of FactoryFix?</t>
+          <t>Cnc mill in the home shop</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-09-25T16:03:31.244Z</t>
+          <t>2023-06-01T18:56:32.250Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fp83gu/cnc_opportunities/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/13xq132/swiss_turning_featurecam_vs_solidcam_vs_esprit/</t>
         </is>
       </c>
     </row>
@@ -2891,17 +2891,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Multi-Swiss</t>
+          <t>Would like your opinion on CAD/CAM and tool managment software</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2020-09-30T14:39:53.766Z</t>
+          <t>2024-08-16T02:04:06.073Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/j2nd8f/has_anyone_used_or_know_of_factoryfix/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1etd4l8/cnc_mill_in_the_home_shop/</t>
         </is>
       </c>
     </row>
@@ -2916,17 +2916,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Can you help me pick a used Swiss?</t>
+          <t>Dear FANUC enjoyers…</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-12T15:19:47.749Z</t>
+          <t>2023-08-26T07:45:01.411Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1e1k9hu/multiswiss/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/161on77/would_like_your_opinion_on_cadcam_and_tool/</t>
         </is>
       </c>
     </row>
@@ -2941,17 +2941,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>What are your experience with okuma machines?</t>
+          <t>Spindle Speed Issue in Handle &amp; Jog Mode</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2023-10-29T16:44:55.550Z</t>
+          <t>2024-06-04T19:02:45.034Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17j6y8m/can_you_help_me_pick_a_used_swiss/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1d855w7/dear_fanuc_enjoyers/</t>
         </is>
       </c>
     </row>
@@ -2966,17 +2966,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cincinnati milacron gantry</t>
+          <t>Mazak vs Haas?</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2022-08-14T04:20:49.732Z</t>
+          <t>2022-09-11T09:00:51.712Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/wnxau2/what_are_your_experience_with_okuma_machines/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/xbdoz5/spindle_speed_issue_in_handle_jog_mode/</t>
         </is>
       </c>
     </row>
@@ -2991,17 +2991,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Anyone with a DMU50 how the f do you turn on the wash gun?</t>
+          <t>What are your experience with okuma machines?</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-08-27T18:41:10.138Z</t>
+          <t>2022-06-28T23:19:29.525Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1f2op5c/cincinnati_milacron_gantry/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/vn0tsk/mazak_vs_haas/</t>
         </is>
       </c>
     </row>
@@ -3016,17 +3016,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>what do machinists think of WFL machines?</t>
+          <t>Coolant nozzle got stuck between the spindle and the tool holder Huron K2x10</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-09-16T21:28:27.352Z</t>
+          <t>2022-08-14T04:20:49.732Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1figjrf/anyone_with_a_dmu50_how_the_f_do_you_turn_on_the/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/wnxau2/what_are_your_experience_with_okuma_machines/</t>
         </is>
       </c>
     </row>
@@ -3041,17 +3041,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3 Setup Roles in NC</t>
+          <t>What’s it like learning DMG Mori lathes?</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-22T19:12:32.993Z</t>
+          <t>2024-10-04T19:02:32.199Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1e9mmdk/what_do_machinists_think_of_wfl_machines/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fw6zsw/coolant_nozzle_got_stuck_between_the_spindle_and/</t>
         </is>
       </c>
     </row>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DMG CMX1100V FANUC ISSUE</t>
+          <t>CNC Opportunities</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-08-02T20:54:27.505Z</t>
+          <t>2024-08-08T13:44:22.045Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1eikzhn/3_setup_roles_in_nc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1en6cfj/whats_it_like_learning_dmg_mori_lathes/</t>
         </is>
       </c>
     </row>
@@ -3091,17 +3091,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Shop Has to Move Away From Fusion 360. Any suggestions for CAD/CAM?</t>
+          <t>Mastercam VS mastercam for solidworks</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-05-15T22:01:09.790Z</t>
+          <t>2024-09-25T16:03:31.244Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1csx2dh/dmg_cmx1100v_fanuc_issue/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1fp83gu/cnc_opportunities/</t>
         </is>
       </c>
     </row>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Programming for tree style fixture - Question - MasterCAM</t>
+          <t>Shop Has to Move Away From Fusion 360. Any suggestions for CAD/CAM?</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2023-08-23T21:27:31.473Z</t>
+          <t>2020-01-07T11:01:30.227Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15zh9x5/shop_has_to_move_away_from_fusion_360_any/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ela3zv/mastercam_vs_mastercam_for_solidworks/</t>
         </is>
       </c>
     </row>
@@ -3141,17 +3141,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>I've always wondered this: Does anyone have any ideas why Mitsubishi CNC's typically have Fanuc controls instead of, I don't know, Mitsubishi ones?</t>
+          <t>programming on machine or offline?</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-06-19T00:29:55.436Z</t>
+          <t>2023-08-23T21:27:31.473Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1dj61s1/programming_for_tree_style_fixture_question/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/15zh9x5/shop_has_to_move_away_from_fusion_360_any/</t>
         </is>
       </c>
     </row>
@@ -3166,17 +3166,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Things I don't like about machining:</t>
+          <t>Cincinnati milacron gantry</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2021-10-06T16:50:40.228Z</t>
+          <t>2023-03-02T20:19:16.360Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/q2ofwk/ive_always_wondered_this_does_anyone_have_any/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/11gct1g/programming_on_machine_or_offline/</t>
         </is>
       </c>
     </row>
@@ -3191,17 +3191,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Fanuc Waveform Trace</t>
+          <t>Any Mazak Iso-Gcode machinists here?</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2020-09-10T18:52:41.467Z</t>
+          <t>2024-08-27T18:41:10.138Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/iq9n2n/things_i_dont_like_about_machining/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1f2op5c/cincinnati_milacron_gantry/</t>
         </is>
       </c>
     </row>
@@ -3216,17 +3216,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Feedrate override knobs</t>
+          <t>Things I don't like about machining:</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-10-03T03:14:38.200Z</t>
+          <t>2023-09-13T05:48:52.478Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fuyfxr/fanuc_waveform_trace/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/16hesm8/any_mazak_isogcode_machinists_here/</t>
         </is>
       </c>
     </row>
@@ -3241,17 +3241,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Has anyone ever seen anything like this? CNC lathe only feeds at rapid travel and spindle speed is different than what is programmed.</t>
+          <t>If your shop had the money, what 5-axis mill and what lathe with a sub spindle would you recommend they buy?</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2023-04-11T21:26:04.071Z</t>
+          <t>2020-09-10T18:52:41.467Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/12iy9tm/feedrate_override_knobs/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/iq9n2n/things_i_dont_like_about_machining/</t>
         </is>
       </c>
     </row>
@@ -3266,17 +3266,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Post Processors Available</t>
+          <t>DMG CMX1100V FANUC ISSUE</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2021-04-23T18:51:51.722Z</t>
+          <t>2023-09-12T22:52:40.046Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/mx2b3t/has_anyone_ever_seen_anything_like_this_cnc_lathe/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/16h5wd7/if_your_shop_had_the_money_what_5axis_mill_and/</t>
         </is>
       </c>
     </row>
@@ -3291,17 +3291,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Job Offer: I want urgently SINUMERIK 840 PLC Programmer for VW</t>
+          <t>VFD for milling machine</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-02-24T18:14:03.247Z</t>
+          <t>2024-05-15T22:01:09.790Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1az17a1/post_processors_available/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1csx2dh/dmg_cmx1100v_fanuc_issue/</t>
         </is>
       </c>
     </row>
@@ -3316,17 +3316,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Program stop issue</t>
+          <t>Can you help me pick a used Swiss?</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-08-16T13:06:07.480Z</t>
+          <t>2023-11-21T11:46:12.975Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1etoatn/job_offer_i_want_urgently_sinumerik_840_plc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/180f4r1/vfd_for_milling_machine/</t>
         </is>
       </c>
     </row>
@@ -3341,17 +3341,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Hermle C 800U</t>
+          <t>DMG Mori DMU 50</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-02-13T12:11:36.001Z</t>
+          <t>2023-10-29T16:44:55.550Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1aprzq5/program_stop_issue/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/17j6y8m/can_you_help_me_pick_a_used_swiss/</t>
         </is>
       </c>
     </row>
@@ -3366,17 +3366,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Would like your opinion on CAD/CAM and tool managment software</t>
+          <t>3 Setup Roles in NC</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-11-02T19:51:23.415Z</t>
+          <t>2022-07-06T15:54:33.313Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1gi4smp/hermle_c_800u/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/vst969/dmg_mori_dmu_50/</t>
         </is>
       </c>
     </row>
@@ -3391,17 +3391,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>G2 question</t>
+          <t>Anyone with a DMU50 how the f do you turn on the wash gun?</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2023-08-26T07:45:01.411Z</t>
+          <t>2024-08-02T20:54:27.505Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/161on77/would_like_your_opinion_on_cadcam_and_tool/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1eikzhn/3_setup_roles_in_nc/</t>
         </is>
       </c>
     </row>
@@ -3416,17 +3416,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Why do you cancel cutter comp and tool length offset?</t>
+          <t>Programming for tree style fixture - Question - MasterCAM</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2023-10-12T21:47:24.586Z</t>
+          <t>2024-09-16T21:28:27.352Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/176ihw1/g2_question/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1figjrf/anyone_with_a_dmu50_how_the_f_do_you_turn_on_the/</t>
         </is>
       </c>
     </row>
@@ -3441,17 +3441,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Gross positioning error</t>
+          <t>Mill skipping tool changes</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2023-08-29T17:42:15.107Z</t>
+          <t>2024-06-19T00:29:55.436Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/164p1a3/why_do_you_cancel_cutter_comp_and_tool_length/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1dj61s1/programming_for_tree_style_fixture_question/</t>
         </is>
       </c>
     </row>
@@ -3466,17 +3466,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>What's the current level of "optimization" software?</t>
+          <t>Program stop issue</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2023-06-09T10:14:52.544Z</t>
+          <t>2023-04-03T05:21:21.137Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1451bfe/gross_positioning_error/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/12aafvs/mill_skipping_tool_changes/</t>
         </is>
       </c>
     </row>
@@ -3491,17 +3491,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>MBD/PMI</t>
+          <t>Has anyone used or know of FactoryFix?</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2023-10-03T11:19:44.756Z</t>
+          <t>2024-02-13T12:11:36.001Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/16yp6wl/whats_the_current_level_of_optimization_software/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1aprzq5/program_stop_issue/</t>
         </is>
       </c>
     </row>
@@ -3516,17 +3516,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Job postings in Southern Ontario</t>
+          <t>New 5 axis. She’s a big one.</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2022-03-22T00:07:24.015Z</t>
+          <t>2020-09-30T14:39:53.766Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/tjpy6r/mbdpmi/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/j2nd8f/has_anyone_used_or_know_of_factoryfix/</t>
         </is>
       </c>
     </row>
@@ -3541,17 +3541,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>R vs IJK</t>
+          <t>What are people's thought and experiences with xyz machines?</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-11-07T01:11:47.177Z</t>
+          <t>2019-05-24T23:19:39.465Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1glemc6/job_postings_in_southern_ontario/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/bsns9v/new_5_axis_shes_a_big_one/</t>
         </is>
       </c>
     </row>
@@ -3566,17 +3566,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>New 5 axis. She’s a big one.</t>
+          <t>Why do you cancel cutter comp and tool length offset?</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2021-02-09T18:26:03.206Z</t>
+          <t>2024-02-01T09:06:21.889Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/lg9smr/r_vs_ijk/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1ag6twm/what_are_peoples_thought_and_experiences_with_xyz/</t>
         </is>
       </c>
     </row>
@@ -3591,17 +3591,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Cad/Cam Packages for small shop</t>
+          <t>What you guys use for CAD and CAM software?</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2019-05-24T23:19:39.465Z</t>
+          <t>2023-08-29T17:42:15.107Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/bsns9v/new_5_axis_shes_a_big_one/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/164p1a3/why_do_you_cancel_cutter_comp_and_tool_length/</t>
         </is>
       </c>
     </row>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Need opinions on horizontals</t>
+          <t>What's the current level of "optimization" software?</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2023-02-07T11:27:22.468Z</t>
+          <t>2021-09-23T05:56:20.378Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10vzju1/cadcam_packages_for_small_shop/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ptosgc/what_you_guys_use_for_cad_and_cam_software/</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3641,17 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>New DMG Mori fresh off the wagon</t>
+          <t>Macro Programming</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2023-11-14T15:21:19.346Z</t>
+          <t>2023-10-03T11:19:44.756Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17v4ib4/need_opinions_on_horizontals/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/16yp6wl/whats_the_current_level_of_optimization_software/</t>
         </is>
       </c>
     </row>
@@ -3666,17 +3666,17 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>XYZ 500 LR VMC Issue</t>
+          <t>Cad/Cam Packages for small shop</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2019-04-04T14:08:33.512Z</t>
+          <t>2022-08-25T18:17:41.508Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/b9d62j/new_dmg_mori_fresh_off_the_wagon/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/wxle2f/macro_programming/</t>
         </is>
       </c>
     </row>
@@ -3691,17 +3691,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>I made a tool to simplify and modernize Macro programming</t>
+          <t>My Favorite machine. What’s yours?</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2024-02-24T19:03:18.506Z</t>
+          <t>2023-02-07T11:27:22.468Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1az2eze/xyz_500_lr_vmc_issue/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/10vzju1/cadcam_packages_for_small_shop/</t>
         </is>
       </c>
     </row>
@@ -3716,17 +3716,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Need some insight, does anyone have any ideas as to what this button on my visionwide dv1160, ive pressed it, nothing seems to happen, sometimes the light for it is on, no noticeable difference (i have seen one aftermarket panel refer to it as an "assist" button but i couldn't find anything about it</t>
+          <t>New DMG Mori fresh off the wagon</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2023-08-26T13:40:13.032Z</t>
+          <t>2024-11-23T05:07:56.905Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/161vjbf/i_made_a_tool_to_simplify_and_modernize_macro/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1gxs2mv/my_favorite_machine_whats_yours/</t>
         </is>
       </c>
     </row>
@@ -3741,17 +3741,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>anyone have old dnc software called Katipo?</t>
+          <t>Need opinions on horizontals</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2022-03-22T11:46:44.767Z</t>
+          <t>2019-04-04T14:08:33.512Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/tk13tr/need_some_insight_does_anyone_have_any_ideas_as/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/b9d62j/new_dmg_mori_fresh_off_the_wagon/</t>
         </is>
       </c>
     </row>
@@ -3766,17 +3766,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Emuge punch tap</t>
+          <t>I made a tool to simplify and modernize Macro programming</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2024-02-09T03:43:36.689Z</t>
+          <t>2023-11-14T15:21:19.346Z</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ameun2/anyone_have_old_dnc_software_called_katipo/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/17v4ib4/need_opinions_on_horizontals/</t>
         </is>
       </c>
     </row>
@@ -3791,17 +3791,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Anyone here Know how a gildemeister nef400 with sinumerik 840d works?</t>
+          <t>XYZ 500 LR VMC Issue</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2022-09-21T14:46:50.648Z</t>
+          <t>2023-08-26T13:40:13.032Z</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xk6xqf/emuge_punch_tap/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/161vjbf/i_made_a_tool_to_simplify_and_modernize_macro/</t>
         </is>
       </c>
     </row>
@@ -3816,17 +3816,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Cnc higfeed. Many point vs arcs?</t>
+          <t>I've always wondered this: Does anyone have any ideas why Mitsubishi CNC's typically have Fanuc controls instead of, I don't know, Mitsubishi ones?</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2023-11-06T09:37:52.417Z</t>
+          <t>2024-02-24T19:03:18.506Z</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/17oz4ev/anyone_here_know_how_a_gildemeister_nef400_with/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1az2eze/xyz_500_lr_vmc_issue/</t>
         </is>
       </c>
     </row>
@@ -3841,17 +3841,17 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>the neighbours son (17) (who regularly hangs out in my woodwork shop ) started training to be a machinist and made me this as his first project . proud of him .</t>
+          <t>anyone have old dnc software called Katipo?</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2024-04-25T03:47:35.665Z</t>
+          <t>2021-10-06T16:50:40.228Z</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1cciad1/cnc_higfeed_many_point_vs_arcs/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/q2ofwk/ive_always_wondered_this_does_anyone_have_any/</t>
         </is>
       </c>
     </row>
@@ -3866,17 +3866,17 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Osai control 3+2 rigid tapping help needed!</t>
+          <t>Need some insight, does anyone have any ideas as to what this button on my visionwide dv1160, ive pressed it, nothing seems to happen, sometimes the light for it is on, no noticeable difference (i have seen one aftermarket panel refer to it as an "assist" button but i couldn't find anything about it</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2021-01-21T23:31:50.788Z</t>
+          <t>2024-02-09T03:43:36.689Z</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/l2apa5/the_neighbours_son_17_who_regularly_hangs_out_in/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1ameun2/anyone_have_old_dnc_software_called_katipo/</t>
         </is>
       </c>
     </row>
@@ -3891,17 +3891,17 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Lil bit of everything</t>
+          <t>G2 question</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2023-10-09T09:51:48.659Z</t>
+          <t>2022-03-22T11:46:44.767Z</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/173nx3z/osai_control_32_rigid_tapping_help_needed/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/tk13tr/need_some_insight_does_anyone_have_any_ideas_as/</t>
         </is>
       </c>
     </row>
@@ -3916,17 +3916,17 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>What is the best resource for a crash course in becoming a CNC machinist?</t>
+          <t>Cnc lathe recommendations</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2021-10-21T12:36:43.923Z</t>
+          <t>2023-10-12T21:47:24.586Z</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qcqt2l/lil_bit_of_everything/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/176ihw1/g2_question/</t>
         </is>
       </c>
     </row>
@@ -3941,17 +3941,17 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>A Machining Apprentice that needs guidance!</t>
+          <t>the neighbours son (17) (who regularly hangs out in my woodwork shop ) started training to be a machinist and made me this as his first project . proud of him .</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2023-04-10T08:07:53.334Z</t>
+          <t>2018-12-19T17:40:17.195Z</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/12hbm1a/what_is_the_best_resource_for_a_crash_course_in/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/a7om4u/cnc_lathe_recommendations/</t>
         </is>
       </c>
     </row>
@@ -3966,17 +3966,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>15m travel in X axis Duplex machine</t>
+          <t>what do machinists think of WFL machines?</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2024-01-11T19:30:18.551Z</t>
+          <t>2021-01-21T23:31:50.788Z</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/194a5xw/a_machining_apprentice_that_needs_guidance/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/l2apa5/the_neighbours_son_17_who_regularly_hangs_out_in/</t>
         </is>
       </c>
     </row>
@@ -3991,17 +3991,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Can't do simulations! Help please!</t>
+          <t>Anyone here Know how a gildemeister nef400 with sinumerik 840d works?</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2024-10-31T04:35:04.162Z</t>
+          <t>2024-07-22T19:12:32.993Z</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1gg6jaq/15m_travel_in_x_axis_duplex_machine/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1e9mmdk/what_do_machinists_think_of_wfl_machines/</t>
         </is>
       </c>
     </row>
@@ -4016,17 +4016,17 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>How To Find A Post Processor for Fanuc Lathe? (SOLIDCAM)</t>
+          <t>Shopping for CAM software</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2023-10-06T12:38:08.882Z</t>
+          <t>2023-11-06T09:37:52.417Z</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/171b8f8/cant_do_simulations_help_please/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/17oz4ev/anyone_here_know_how_a_gildemeister_nef400_with/</t>
         </is>
       </c>
     </row>
@@ -4041,17 +4041,17 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Hello everyone! I'm curious what controls you are using. If you work on multiple machines, please select the one you use the most.</t>
+          <t>Lil bit of everything</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2021-08-03T06:35:35.358Z</t>
+          <t>2022-02-08T17:06:30.963Z</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/owxp0o/how_to_find_a_post_processor_for_fanuc_lathe/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/snp651/shopping_for_cam_software/</t>
         </is>
       </c>
     </row>
@@ -4066,17 +4066,17 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Found this gem of a lathe in a scrapyard. Will be retrofitting it into a CNC</t>
+          <t>15m travel in X axis Duplex machine</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2022-06-24T11:00:21.531Z</t>
+          <t>2021-10-21T12:36:43.923Z</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/vjls3e/hello_everyone_im_curious_what_controls_you_are/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/qcqt2l/lil_bit_of_everything/</t>
         </is>
       </c>
     </row>
@@ -4091,17 +4091,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>What the chuff?</t>
+          <t>Hello everyone! I'm curious what controls you are using. If you work on multiple machines, please select the one you use the most.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2017-12-23T18:08:34.194Z</t>
+          <t>2024-10-31T04:35:04.162Z</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/7lq1b8/found_this_gem_of_a_lathe_in_a_scrapyard_will_be/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1gg6jaq/15m_travel_in_x_axis_duplex_machine/</t>
         </is>
       </c>
     </row>
@@ -4116,17 +4116,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Hello beginner needs help</t>
+          <t>Hermle C 800U</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2024-02-04T22:44:01.052Z</t>
+          <t>2022-06-24T11:00:21.531Z</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1aj0vzd/what_the_chuff/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/vjls3e/hello_everyone_im_curious_what_controls_you_are/</t>
         </is>
       </c>
     </row>
@@ -4141,17 +4141,17 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Lost parameters on Fanuc 18-T</t>
+          <t>Can't do simulations! Help please!</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2024-01-05T09:10:14.034Z</t>
+          <t>2024-11-02T19:51:23.415Z</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/18z2nii/hello_beginner_needs_help/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1gi4smp/hermle_c_800u/</t>
         </is>
       </c>
     </row>
@@ -4166,17 +4166,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Cnc lathe crash help</t>
+          <t>Osai control 3+2 rigid tapping help needed!</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2024-09-12T17:08:51.285Z</t>
+          <t>2023-10-06T12:38:08.882Z</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ff7r60/lost_parameters_on_fanuc_18t/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/171b8f8/cant_do_simulations_help_please/</t>
         </is>
       </c>
     </row>
@@ -4191,17 +4191,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Swiss Turning: FeatureCAM vs SolidCAM vs ESPRIT CAM vs MasterCAM</t>
+          <t>A Machining Apprentice that needs guidance!</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2023-10-10T23:39:16.482Z</t>
+          <t>2023-10-09T09:51:48.659Z</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/174zqb5/cnc_lathe_crash_help/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/173nx3z/osai_control_32_rigid_tapping_help_needed/</t>
         </is>
       </c>
     </row>
@@ -4216,17 +4216,17 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Are you in a leadership position at a machine shop?</t>
+          <t>Any one use mixed machinery</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2023-06-01T18:56:32.250Z</t>
+          <t>2024-01-11T19:30:18.551Z</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/13xq132/swiss_turning_featurecam_vs_solidcam_vs_esprit/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/194a5xw/a_machining_apprentice_that_needs_guidance/</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2023-09-13T20:02:42.689Z</t>
+          <t>2021-08-28T16:15:56.383Z</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/16hx7dt/are_you_in_a_leadership_position_at_a_machine_shop/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/pdcq27/any_one_use_mixed_machinery/</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Back up and running! Feels good!</t>
+          <t>How To Find A Post Processor for Fanuc Lathe? (SOLIDCAM)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4291,17 +4291,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>General turning centre buying advice (and question about DMG Mori CMX350/CMX450 HSM (F360) post)</t>
+          <t>Ever fuck up so bad you warp space time?</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2023-06-23T21:49:17.125Z</t>
+          <t>2021-08-03T06:35:35.358Z</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14haupz/back_up_and_running_feels_good/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/owxp0o/how_to_find_a_post_processor_for_fanuc_lathe/</t>
         </is>
       </c>
     </row>
@@ -4316,17 +4316,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Ever fuck up so bad you warp space time?</t>
+          <t>Anyone else's machine go to 3 decimal places for RPM?</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2023-03-24T10:28:01.815Z</t>
+          <t>2018-01-13T20:35:52.082Z</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/120g6nx/general_turning_centre_buying_advice_and_question/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/7q71ir/ever_fuck_up_so_bad_you_warp_space_time/</t>
         </is>
       </c>
     </row>
@@ -4341,17 +4341,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>100y Old Lathe Converted to CNC. Picture was taken in the Industrial Museum in Chemnitz.</t>
+          <t>Cnc lathe crash help</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2018-01-13T20:35:52.082Z</t>
+          <t>2022-05-17T03:07:55.233Z</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/7q71ir/ever_fuck_up_so_bad_you_warp_space_time/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/urd2f3/anyone_elses_machine_go_to_3_decimal_places_for/</t>
         </is>
       </c>
     </row>
@@ -4366,17 +4366,17 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Anyone else's machine go to 3 decimal places for RPM?</t>
+          <t>Your most exotic or dificult part made?</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2024-04-14T19:18:44.385Z</t>
+          <t>2023-10-10T23:39:16.482Z</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1c41me3/100y_old_lathe_converted_to_cnc_picture_was_taken/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/174zqb5/cnc_lathe_crash_help/</t>
         </is>
       </c>
     </row>
@@ -4391,17 +4391,17 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Looking for a good resource for learning macro programming. Want to fill out my roster of skills</t>
+          <t>Hello beginner needs help</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2022-05-17T03:07:55.233Z</t>
+          <t>2022-06-11T16:23:02.077Z</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/urd2f3/anyone_elses_machine_go_to_3_decimal_places_for/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/va10cu/your_most_exotic_or_dificult_part_made/</t>
         </is>
       </c>
     </row>
@@ -4416,17 +4416,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>New Machine Day!</t>
+          <t>Opinions on ROMI lathes</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2022-03-02T13:17:13.122Z</t>
+          <t>2024-01-05T09:10:14.034Z</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/t4zxqr/looking_for_a_good_resource_for_learning_macro/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/18z2nii/hello_beginner_needs_help/</t>
         </is>
       </c>
     </row>
@@ -4441,17 +4441,17 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Modern Replacement Switch Recommendation</t>
+          <t>General turning centre buying advice (and question about DMG Mori CMX350/CMX450 HSM (F360) post)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2022-09-21T17:00:56.906Z</t>
+          <t>2021-09-21T10:55:58.814Z</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xkaist/new_machine_day/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/psgddo/opinions_on_romi_lathes/</t>
         </is>
       </c>
     </row>
@@ -4466,17 +4466,17 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>G04 P2 is 2 seconds on my machine.</t>
+          <t>What is the best resource for a crash course in becoming a CNC machinist?</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2024-09-29T00:40:43.912Z</t>
+          <t>2023-03-24T10:28:01.815Z</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1frsf1q/modern_replacement_switch_recommendation/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/120g6nx/general_turning_centre_buying_advice_and_question/</t>
         </is>
       </c>
     </row>
@@ -4491,17 +4491,17 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Haas VF-6/40 Any Good?</t>
+          <t>Back up and running! Feels good!</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2023-04-05T07:36:16.993Z</t>
+          <t>2023-04-10T08:07:53.334Z</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/12cc9t3/g04_p2_is_2_seconds_on_my_machine/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/12hbm1a/what_is_the_best_resource_for_a_crash_course_in/</t>
         </is>
       </c>
     </row>
@@ -4516,17 +4516,17 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>programming on machine or offline?</t>
+          <t>Lost parameters on Fanuc 18-T</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2021-10-29T01:39:24.058Z</t>
+          <t>2023-06-23T21:49:17.125Z</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qi1qzz/haas_vf640_any_good/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/14haupz/back_up_and_running_feels_good/</t>
         </is>
       </c>
     </row>
@@ -4541,17 +4541,17 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Ball screw / VFD Upgrade for Enco 9100 (RF-30)</t>
+          <t>It's truly the better way.</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2023-03-02T20:19:16.360Z</t>
+          <t>2024-09-12T17:08:51.285Z</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11gct1g/programming_on_machine_or_offline/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1ff7r60/lost_parameters_on_fanuc_18t/</t>
         </is>
       </c>
     </row>
@@ -4566,17 +4566,17 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>It's truly the better way.</t>
+          <t>Haas VF-6/40 Any Good?</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2020-11-26T21:19:14.174Z</t>
+          <t>2020-10-22T07:16:58.610Z</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/k1nmjk/ball_screw_vfd_upgrade_for_enco_9100_rf30/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/jfv0f5/its_truly_the_better_way/</t>
         </is>
       </c>
     </row>
@@ -4591,17 +4591,17 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>What software should I learn?</t>
+          <t>New Machine Day!</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2020-10-22T07:16:58.610Z</t>
+          <t>2021-10-29T01:39:24.058Z</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/jfv0f5/its_truly_the_better_way/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/qi1qzz/haas_vf640_any_good/</t>
         </is>
       </c>
     </row>
@@ -4616,17 +4616,17 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>What are some of the cool Macros that you’ve made that you are the proudest?</t>
+          <t>Which CAM system to learn?</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2022-08-24T14:15:29.115Z</t>
+          <t>2022-09-21T17:00:56.906Z</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/wwkp7i/what_software_should_i_learn/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/xkaist/new_machine_day/</t>
         </is>
       </c>
     </row>
@@ -4641,17 +4641,17 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>I can run a machine just fine, light maintenance work I’m ok with, but sometimes:</t>
+          <t>Found this gem of a lathe in a scrapyard. Will be retrofitting it into a CNC</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2022-01-27T12:32:33.957Z</t>
+          <t>2021-02-19T16:52:15.416Z</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/sdxcib/what_are_some_of_the_cool_macros_that_youve_made/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/lnkiwt/which_cam_system_to_learn/</t>
         </is>
       </c>
     </row>
@@ -4666,17 +4666,17 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Macro Programming</t>
+          <t>Ball screw / VFD Upgrade for Enco 9100 (RF-30)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2018-12-12T15:37:16.703Z</t>
+          <t>2017-12-23T18:08:34.194Z</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/a5j70m/i_can_run_a_machine_just_fine_light_maintenance/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/7lq1b8/found_this_gem_of_a_lathe_in_a_scrapyard_will_be/</t>
         </is>
       </c>
     </row>
@@ -4691,17 +4691,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DMG 5 axis celos controller</t>
+          <t>G04 P2 is 2 seconds on my machine.</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2022-08-25T18:17:41.508Z</t>
+          <t>2020-11-26T21:19:14.174Z</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/wxle2f/macro_programming/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/k1nmjk/ball_screw_vfd_upgrade_for_enco_9100_rf30/</t>
         </is>
       </c>
     </row>
@@ -4716,17 +4716,17 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Anyone have experience with vfd from aliexpress?</t>
+          <t>100y Old Lathe Converted to CNC. Picture was taken in the Industrial Museum in Chemnitz.</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2022-12-28T23:44:06.582Z</t>
+          <t>2023-04-05T07:36:16.993Z</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/zxp27t/dmg_5_axis_celos_controller/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/12cc9t3/g04_p2_is_2_seconds_on_my_machine/</t>
         </is>
       </c>
     </row>
@@ -4741,17 +4741,17 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Hurco opinion</t>
+          <t>What are some of the cool Macros that you’ve made that you are the proudest?</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2024-02-04T19:28:56.044Z</t>
+          <t>2024-04-14T19:18:44.385Z</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1aiw53t/anyone_have_experience_with_vfd_from_aliexpress/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1c41me3/100y_old_lathe_converted_to_cnc_picture_was_taken/</t>
         </is>
       </c>
     </row>
@@ -4766,17 +4766,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>CAM Simulation and verification</t>
+          <t>What cam software are you using?</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2021-02-27T11:23:32.090Z</t>
+          <t>2022-01-27T12:32:33.957Z</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ltm567/hurco_opinion/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/sdxcib/what_are_some_of_the_cool_macros_that_youve_made/</t>
         </is>
       </c>
     </row>
@@ -4791,17 +4791,17 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>I took a big lathe pic, too!</t>
+          <t>Buddy on the lathe has an interesting method to catch the chips!</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2023-03-22T18:55:11.245Z</t>
+          <t>2021-12-19T07:52:16.894Z</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11ysqmo/cam_simulation_and_verification/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/rjrzec/what_cam_software_are_you_using/</t>
         </is>
       </c>
     </row>
@@ -4816,17 +4816,17 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>My shop in GTA Online</t>
+          <t>I can run a machine just fine, light maintenance work I’m ok with, but sometimes:</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2018-05-12T13:42:25.827Z</t>
+          <t>2022-02-04T15:30:19.050Z</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/8iw3ak/i_took_a_big_lathe_pic_too/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/skg0ct/buddy_on_the_lathe_has_an_interesting_method_to/</t>
         </is>
       </c>
     </row>
@@ -4841,17 +4841,17 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Career Question</t>
+          <t>Bought this from a retiring machinist, anyone know what brand it is? Can’t seem to find any info anywhere</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2022-06-15T01:52:04.494Z</t>
+          <t>2018-12-12T15:37:16.703Z</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/vcjafq/my_shop_in_gta_online/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/a5j70m/i_can_run_a_machine_just_fine_light_maintenance/</t>
         </is>
       </c>
     </row>
@@ -4866,17 +4866,17 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Bought this from a retiring machinist, anyone know what brand it is? Can’t seem to find any info anywhere</t>
+          <t>Anyone have experience with vfd from aliexpress?</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2021-11-12T12:25:13.501Z</t>
+          <t>2022-05-18T20:46:05.505Z</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qsa37q/career_question/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/usmdfv/bought_this_from_a_retiring_machinist_anyone_know/</t>
         </is>
       </c>
     </row>
@@ -4891,17 +4891,17 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>How do I know if the 4th rotary axis is simultaneous or position only ?</t>
+          <t>Emuge punch tap</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2022-05-18T20:46:05.505Z</t>
+          <t>2024-02-04T19:28:56.044Z</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/usmdfv/bought_this_from_a_retiring_machinist_anyone_know/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1aiw53t/anyone_have_experience_with_vfd_from_aliexpress/</t>
         </is>
       </c>
     </row>
@@ -4916,17 +4916,17 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Triple Start Thread Help Required</t>
+          <t>NC Viewer online/Posting</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2022-11-07T19:59:30.780Z</t>
+          <t>2022-09-21T14:46:50.648Z</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/yoyfkg/how_do_i_know_if_the_4th_rotary_axis_is/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/xk6xqf/emuge_punch_tap/</t>
         </is>
       </c>
     </row>
@@ -4941,17 +4941,17 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Just landed a job as a lead programmer at a shop that just bought a brand new Eurotech Rapido! If anyone has any experience with these do you mind giving some tips?</t>
+          <t>Triple Start Thread Help Required</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2022-08-25T14:34:49.696Z</t>
+          <t>2019-10-07T19:54:29.930Z</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/wxfvgj/triple_start_thread_help_required/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/deoqmu/nc_viewer_onlineposting/</t>
         </is>
       </c>
     </row>
@@ -4966,17 +4966,17 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Newbie problems</t>
+          <t>FANUC Guys do you use the FANUC manual guide conversational programming?</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2021-04-23T15:18:01.634Z</t>
+          <t>2022-08-25T14:34:49.696Z</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/mwxl7b/just_landed_a_job_as_a_lead_programmer_at_a_shop/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/wxfvgj/triple_start_thread_help_required/</t>
         </is>
       </c>
     </row>
@@ -4991,17 +4991,17 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Leaving Mastercam. Let's talk CAM software.</t>
+          <t>Career Question</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2023-01-22T18:50:34.700Z</t>
+          <t>2019-03-30T13:36:07.141Z</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10iqyln/newbie_problems/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/b7bcgc/fanuc_guys_do_you_use_the_fanuc_manual_guide/</t>
         </is>
       </c>
     </row>
@@ -5016,17 +5016,17 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Anyone know how to set tools on this machine?</t>
+          <t>Hurco opinion</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2019-07-09T22:39:39.826Z</t>
+          <t>2021-11-12T12:25:13.501Z</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/cb82yt/leaving_mastercam_lets_talk_cam_software/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/qsa37q/career_question/</t>
         </is>
       </c>
     </row>
@@ -5041,17 +5041,17 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>MRI body scan and metal dust (?) in lungs.</t>
+          <t>CAM Simulation and verification</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2022-03-24T20:30:48.293Z</t>
+          <t>2021-02-27T11:23:32.090Z</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/tn2jwu/anyone_know_how_to_set_tools_on_this_machine/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ltm567/hurco_opinion/</t>
         </is>
       </c>
     </row>
@@ -5066,17 +5066,17 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>get to start on this monday morning</t>
+          <t>Who else running a 40 year old CNC lathe</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2024-02-07T18:56:45.991Z</t>
+          <t>2023-03-22T18:55:11.245Z</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1alajs1/mri_body_scan_and_metal_dust_in_lungs/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/11ysqmo/cam_simulation_and_verification/</t>
         </is>
       </c>
     </row>
@@ -5091,17 +5091,17 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Identifying a milling machine</t>
+          <t>How do I know if the 4th rotary axis is simultaneous or position only ?</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2020-02-22T09:14:59.784Z</t>
+          <t>2021-07-31T18:54:13.312Z</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/f7qa4o/get_to_start_on_this_monday_morning/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ovcrbl/who_else_running_a_40_year_old_cnc_lathe/</t>
         </is>
       </c>
     </row>
@@ -5116,17 +5116,17 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Dugard eagle 450 mini mill or haas tm1p</t>
+          <t>DMG 5 axis celos controller</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2021-02-14T12:16:48.717Z</t>
+          <t>2022-11-07T19:59:30.780Z</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ljndu2/identifying_a_milling_machine/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/yoyfkg/how_do_i_know_if_the_4th_rotary_axis_is/</t>
         </is>
       </c>
     </row>
@@ -5141,17 +5141,17 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Help with getting autocut software setup WEDM</t>
+          <t>Newbie problems</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2022-10-12T20:12:57.032Z</t>
+          <t>2022-12-28T23:44:06.582Z</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/y2e5d4/dugard_eagle_450_mini_mill_or_haas_tm1p/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/zxp27t/dmg_5_axis_celos_controller/</t>
         </is>
       </c>
     </row>
@@ -5166,17 +5166,17 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Replace Maho 600E milling machine with rotary table (4 axis machine)</t>
+          <t>you need to change to tool 9 on a CNC, do you type</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2023-08-17T20:04:59.796Z</t>
+          <t>2023-01-22T18:50:34.700Z</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15ty3e7/help_with_getting_autocut_software_setup_wedm/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/10iqyln/newbie_problems/</t>
         </is>
       </c>
     </row>
@@ -5191,17 +5191,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>What software are y'all using? I use SolidWorks and CAMWorks.</t>
+          <t>get to start on this monday morning</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2023-02-22T18:15:50.249Z</t>
+          <t>2021-10-14T18:56:25.344Z</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1196uan/replace_maho_600e_milling_machine_with_rotary/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/q868ag/you_need_to_change_to_tool_9_on_a_cnc_do_you_type/</t>
         </is>
       </c>
     </row>
@@ -5216,17 +5216,17 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>On what system did you first worked and on what system are you working now ?</t>
+          <t>Leaving Mastercam. Let's talk CAM software.</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2022-05-28T21:26:29.062Z</t>
+          <t>2020-02-22T09:14:59.784Z</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/uzwizp/what_software_are_yall_using_i_use_solidworks_and/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/f7qa4o/get_to_start_on_this_monday_morning/</t>
         </is>
       </c>
     </row>
@@ -5241,17 +5241,17 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Any of you run a Zayer or Soraluce?</t>
+          <t>On what system did you first worked and on what system are you working now ?</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2021-08-28T14:34:34.579Z</t>
+          <t>2019-07-09T22:39:39.826Z</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/pdav18/on_what_system_did_you_first_worked_and_on_what/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/cb82yt/leaving_mastercam_lets_talk_cam_software/</t>
         </is>
       </c>
     </row>
@@ -5266,17 +5266,17 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>5 axis simultaneous</t>
+          <t>My first machine in my new shop</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2024-10-17T23:46:00.120Z</t>
+          <t>2021-08-28T14:34:34.579Z</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1g64u3a/any_of_you_run_a_zayer_or_soraluce/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/pdav18/on_what_system_did_you_first_worked_and_on_what/</t>
         </is>
       </c>
     </row>
@@ -5291,17 +5291,17 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Hiring programmers/prototypers</t>
+          <t>Dugard eagle 450 mini mill or haas tm1p</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2022-03-30T17:47:06.716Z</t>
+          <t>2020-11-25T20:35:15.885Z</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/tsc29h/5_axis_simultaneous/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/k10b5a/my_first_machine_in_my_new_shop/</t>
         </is>
       </c>
     </row>
@@ -5316,17 +5316,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Rate my chippings</t>
+          <t>Recommendations for CAM software for new mill turn?</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2021-10-29T18:37:35.990Z</t>
+          <t>2022-10-12T20:12:57.032Z</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/qijda5/hiring_programmersprototypers/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/y2e5d4/dugard_eagle_450_mini_mill_or_haas_tm1p/</t>
         </is>
       </c>
     </row>
@@ -5341,17 +5341,17 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Anyone have experience with Syil X7</t>
+          <t>Replace Maho 600E milling machine with rotary table (4 axis machine)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2024-09-16T07:19:24.934Z</t>
+          <t>2023-04-10T17:01:59.293Z</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1fhyo92/rate_my_chippings/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/12hovqn/recommendations_for_cam_software_for_new_mill_turn/</t>
         </is>
       </c>
     </row>
@@ -5366,17 +5366,17 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Anyone want a giant Mill?</t>
+          <t>Tilted working plane help</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2022-04-26T01:09:59.595Z</t>
+          <t>2023-02-22T18:15:50.249Z</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/uc0mym/anyone_have_experience_with_syil_x7/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1196uan/replace_maho_600e_milling_machine_with_rotary/</t>
         </is>
       </c>
     </row>
@@ -5391,17 +5391,17 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Well...this sucks.</t>
+          <t>Does anyone actually enjoy working on these? I think it’s a big over complicated bag of Japanese poopoo</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2017-02-23T20:12:14.466Z</t>
+          <t>2024-06-11T22:12:19.448Z</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/5vsrfc/anyone_want_a_giant_mill/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1ddqppj/tilted_working_plane_help/</t>
         </is>
       </c>
     </row>
@@ -5416,17 +5416,17 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Starting to use CNC machine</t>
+          <t>CNC Machinist Wanted</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2021-04-19T20:10:57.323Z</t>
+          <t>2021-03-29T10:24:04.348Z</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/mu9cxe/wellthis_sucks/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/mfmg8j/does_anyone_actually_enjoy_working_on_these_i/</t>
         </is>
       </c>
     </row>
@@ -5441,17 +5441,17 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Who else running a 40 year old CNC lathe</t>
+          <t>5 axis simultaneous</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2022-08-23T21:39:50.751Z</t>
+          <t>2017-02-08T20:50:17.578Z</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ww0x13/starting_to_use_cnc_machine/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/5svexu/cnc_machinist_wanted/</t>
         </is>
       </c>
     </row>
@@ -5466,17 +5466,17 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Who else is excited about the new Hurco controls?</t>
+          <t>fanuc 16, if I goto edit/program dir/right soft key/DS-DIR it brings up a data server hd directory… any idea how I can see these programs or use/setup the DS server?! There is a ethertwist transceiver in the control cabinet too I think has to do with it- any ideas would be awesome!</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2021-07-31T18:54:13.312Z</t>
+          <t>2022-03-30T17:47:06.716Z</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ovcrbl/who_else_running_a_40_year_old_cnc_lathe/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/tsc29h/5_axis_simultaneous/</t>
         </is>
       </c>
     </row>
@@ -5491,17 +5491,17 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Does anyone know of a decent laptop I could use to learn CAD/CAM that is maybe within the $600-$700 dollar range?</t>
+          <t>Starting to use CNC machine</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2024-10-14T21:44:13.557Z</t>
+          <t>2021-07-23T20:58:58.586Z</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1g3ro00/who_else_is_excited_about_the_new_hurco_controls/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/oqbdyz/fanuc_16_if_i_goto_editprogram_dirright_soft/</t>
         </is>
       </c>
     </row>
@@ -5516,17 +5516,17 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Asked ChatGPT to resolve our issue and this is what it outputted.</t>
+          <t>Mazak Mill Multiple Tool Offsets</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2023-03-05T21:36:27.693Z</t>
+          <t>2022-08-23T21:39:50.751Z</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/11jen68/does_anyone_know_of_a_decent_laptop_i_could_use/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ww0x13/starting_to_use_cnc_machine/</t>
         </is>
       </c>
     </row>
@@ -5546,12 +5546,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2023-02-03T20:01:19.924Z</t>
+          <t>2020-01-11T01:14:17.442Z</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/10stnhd/asked_chatgpt_to_resolve_our_issue_and_this_is/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/en0i10/mazak_mill_multiple_tool_offsets/</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>CNC Machinist Wanted</t>
+          <t>Is there better/ other name for this than 3-axis boring?</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5591,17 +5591,17 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>My view from my hotel room that I have for the DMG MORI open Haus in Pfronten, Germany :D Hyped for it!</t>
+          <t>Well...this sucks.</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2017-02-08T20:50:17.578Z</t>
+          <t>2020-03-04T20:00:41.370Z</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/5svexu/cnc_machinist_wanted/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/fdiqoa/is_there_better_other_name_for_this_than_3axis/</t>
         </is>
       </c>
     </row>
@@ -5616,17 +5616,17 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Advice for someone switching CAD/CAM systems</t>
+          <t>Looking for a good resource for learning macro programming. Want to fill out my roster of skills</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2022-05-08T11:43:07.650Z</t>
+          <t>2021-04-19T20:10:57.323Z</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ukzy5r/my_view_from_my_hotel_room_that_i_have_for_the/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/mu9cxe/wellthis_sucks/</t>
         </is>
       </c>
     </row>
@@ -5641,17 +5641,17 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>FANUC Guys do you use the FANUC manual guide conversational programming?</t>
+          <t>Anyone want a giant Mill?</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2022-04-07T03:39:47.914Z</t>
+          <t>2022-03-02T13:17:13.122Z</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ty42mb/advice_for_someone_switching_cadcam_systems/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/t4zxqr/looking_for_a_good_resource_for_learning_macro/</t>
         </is>
       </c>
     </row>
@@ -5666,17 +5666,17 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Anyone got experience with Goodway machines?</t>
+          <t>Why pay all those xtra $ for driven tooling on your slant turn ??</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2019-03-30T13:36:07.141Z</t>
+          <t>2017-02-23T20:12:14.466Z</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/b7bcgc/fanuc_guys_do_you_use_the_fanuc_manual_guide/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/5vsrfc/anyone_want_a_giant_mill/</t>
         </is>
       </c>
     </row>
@@ -5691,17 +5691,17 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>DMG 5AX Opinions - What do you like?</t>
+          <t>Anyone have experience with Syil X7</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2022-09-29T08:53:42.902Z</t>
+          <t>2020-09-08T07:49:43.024Z</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/xr2mej/anyone_got_experience_with_goodway_machines/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/iopipp/why_pay_all_those_xtra_for_driven_tooling_on_your/</t>
         </is>
       </c>
     </row>
@@ -5716,17 +5716,17 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>A little help with circular milling (CNC - ST 37.2)</t>
+          <t>cnc210</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2021-04-13T23:16:37.301Z</t>
+          <t>2022-04-26T01:09:59.595Z</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/mqe1oj/dmg_5ax_opinions_what_do_you_like/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/uc0mym/anyone_have_experience_with_syil_x7/</t>
         </is>
       </c>
     </row>
@@ -5741,17 +5741,17 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Haas or Prototrak CNC?</t>
+          <t>Haas tcpc vs dwo</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2020-10-07T13:44:41.317Z</t>
+          <t>2022-10-15T12:07:58.314Z</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/j6r2yp/a_little_help_with_circular_milling_cnc_st_372/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/y4mad2/cnc210/</t>
         </is>
       </c>
     </row>
@@ -5766,17 +5766,17 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>What is the math you use most frequently?</t>
+          <t>Advice for someone switching CAD/CAM systems</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2024-02-08T02:49:35.820Z</t>
+          <t>2024-02-26T14:08:23.267Z</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1allcz5/haas_or_prototrak_cnc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1b0ide6/haas_tcpc_vs_dwo/</t>
         </is>
       </c>
     </row>
@@ -5791,17 +5791,17 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>New machine</t>
+          <t>How it feels having your boss watching your program run.</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2015-04-20T01:05:32.436Z</t>
+          <t>2022-04-07T03:39:47.914Z</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/336mu0/what_is_the_math_you_use_most_frequently/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ty42mb/advice_for_someone_switching_cadcam_systems/</t>
         </is>
       </c>
     </row>
@@ -5816,17 +5816,17 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>New machine...with probe... fuck me.</t>
+          <t>A little help with circular milling (CNC - ST 37.2)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2024-06-11T10:50:20.498Z</t>
+          <t>2021-03-11T17:20:51.766Z</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1ddb6fc/new_machine/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/m2vgf5/how_it_feels_having_your_boss_watching_your/</t>
         </is>
       </c>
     </row>
@@ -5841,17 +5841,17 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Engineer to machinist</t>
+          <t>Looking to learn g and m code</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2021-08-25T20:42:38.969Z</t>
+          <t>2020-10-07T13:44:41.317Z</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/pbjz13/new_machinewith_probe_fuck_me/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/j6r2yp/a_little_help_with_circular_milling_cnc_st_372/</t>
         </is>
       </c>
     </row>
@@ -5866,17 +5866,17 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Harvi 1 TE, 25mm axial, 4mm radial, machining aluminum with ease.</t>
+          <t>Anyone got experience with Goodway machines?</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2021-09-27T18:24:39.728Z</t>
+          <t>2022-04-28T03:20:56.728Z</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/pwn721/engineer_to_machinist/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/udlips/looking_to_learn_g_and_m_code/</t>
         </is>
       </c>
     </row>
@@ -5891,17 +5891,17 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Radius programming on haas</t>
+          <t>Identifying a milling machine</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2021-01-11T12:40:03.124Z</t>
+          <t>2022-09-29T08:53:42.902Z</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/kv1uv5/harvi_1_te_25mm_axial_4mm_radial_machining/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/xr2mej/anyone_got_experience_with_goodway_machines/</t>
         </is>
       </c>
     </row>
@@ -5916,17 +5916,17 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Which CAM system to learn?</t>
+          <t>Hiring programmers/prototypers</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2023-06-19T01:49:25.516Z</t>
+          <t>2021-02-14T12:16:48.717Z</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/14d1b2o/radius_programming_on_haas/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ljndu2/identifying_a_milling_machine/</t>
         </is>
       </c>
     </row>
@@ -5941,17 +5941,17 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Ayy</t>
+          <t>Anyone knows how to program Double Loop or Double Figure Eight grooves on a Lathe. Example in comments.</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2021-02-19T16:52:15.416Z</t>
+          <t>2021-10-29T18:37:35.990Z</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/lnkiwt/which_cam_system_to_learn/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/qijda5/hiring_programmersprototypers/</t>
         </is>
       </c>
     </row>
@@ -5966,17 +5966,17 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Is Haas Really That Bad?</t>
+          <t>What is the math you use most frequently?</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2022-12-08T12:18:19.187Z</t>
+          <t>2020-02-03T20:26:23.880Z</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/zfx9pk/ayy/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/eydat5/anyone_knows_how_to_program_double_loop_or_double/</t>
         </is>
       </c>
     </row>
@@ -5991,17 +5991,17 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Anyone can share mastercam / step/parasolid files?</t>
+          <t>My shop in GTA Online</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2023-08-02T17:22:10.371Z</t>
+          <t>2015-04-20T01:05:32.436Z</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/15gewpf/is_haas_really_that_bad/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/336mu0/what_is_the_math_you_use_most_frequently/</t>
         </is>
       </c>
     </row>
@@ -6016,17 +6016,17 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>How much should i be getting paid UK</t>
+          <t>New machine...with probe... fuck me.</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2024-06-18T07:37:08.318Z</t>
+          <t>2022-06-15T01:52:04.494Z</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1dikyex/anyone_can_share_mastercam_stepparasolid_files/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/vcjafq/my_shop_in_gta_online/</t>
         </is>
       </c>
     </row>
@@ -6041,17 +6041,17 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Spindle encoder not working</t>
+          <t>Deckel Maho M codes</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2018-11-23T18:54:57.865Z</t>
+          <t>2021-08-25T20:42:38.969Z</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/9zqy0f/how_much_should_i_be_getting_paid_uk/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/pbjz13/new_machinewith_probe_fuck_me/</t>
         </is>
       </c>
     </row>
@@ -6066,17 +6066,17 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Cnc lathe recommendations</t>
+          <t>How would you guys program this? I'm getting a lot of chatter at the top</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2021-02-01T02:01:13.725Z</t>
+          <t>2021-11-03T02:52:43.458Z</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/l9s09a/spindle_encoder_not_working/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/qll3nr/deckel_maho_m_codes/</t>
         </is>
       </c>
     </row>
@@ -6091,17 +6091,17 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>First chips on the new CTX!</t>
+          <t>Harvi 1 TE, 25mm axial, 4mm radial, machining aluminum with ease.</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2018-12-19T17:40:17.195Z</t>
+          <t>2022-08-23T16:17:12.913Z</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/a7om4u/cnc_lathe_recommendations/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/wvsygd/how_would_you_guys_program_this_im_getting_a_lot/</t>
         </is>
       </c>
     </row>
@@ -6116,17 +6116,17 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Company looking to get a CNC mill. Got some questions.</t>
+          <t>Just landed a job as a lead programmer at a shop that just bought a brand new Eurotech Rapido! If anyone has any experience with these do you mind giving some tips?</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2020-01-30T21:06:09.089Z</t>
+          <t>2021-01-11T12:40:03.124Z</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ewcaei/first_chips_on_the_new_ctx/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/kv1uv5/harvi_1_te_25mm_axial_4mm_radial_machining/</t>
         </is>
       </c>
     </row>
@@ -6141,17 +6141,17 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>New machine day at the shop DMG Mori CTX gamma 3000</t>
+          <t>Thank you to whoever posted a while back about that wiha allen key holder, it gave me the inspiration to make this print in place version of it.</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2020-04-25T16:02:13.084Z</t>
+          <t>2021-04-23T15:18:01.634Z</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/g7vvuv/company_looking_to_get_a_cnc_mill_got_some/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/mwxl7b/just_landed_a_job_as_a_lead_programmer_at_a_shop/</t>
         </is>
       </c>
     </row>
@@ -6166,17 +6166,17 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Anyone knows how to program Double Loop or Double Figure Eight grooves on a Lathe. Example in comments.</t>
+          <t>First chips on the new CTX!</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2020-03-20T01:07:28.932Z</t>
+          <t>2021-08-23T14:13:51.235Z</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/flltgl/new_machine_day_at_the_shop_dmg_mori_ctx_gamma/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/pa0nz3/thank_you_to_whoever_posted_a_while_back_about/</t>
         </is>
       </c>
     </row>
@@ -6191,17 +6191,17 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>When I grow up I wanna be just like you...</t>
+          <t>Does anyone know of a decent laptop I could use to learn CAD/CAM that is maybe within the $600-$700 dollar range?</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2020-02-03T20:26:23.880Z</t>
+          <t>2020-01-30T21:06:09.089Z</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/eydat5/anyone_knows_how_to_program_double_loop_or_double/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ewcaei/first_chips_on_the_new_ctx/</t>
         </is>
       </c>
     </row>
@@ -6216,17 +6216,17 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Thinking of moving to America/ Canada and trying to way up the pros and cons</t>
+          <t>How much should i be getting paid UK</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2017-05-27T10:17:47.790Z</t>
+          <t>2023-03-05T21:36:27.693Z</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/6dmzbe/when_i_grow_up_i_wanna_be_just_like_you/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/11jen68/does_anyone_know_of_a_decent_laptop_i_could_use/</t>
         </is>
       </c>
     </row>
@@ -6241,17 +6241,17 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Does anyone know how to order things at 2013 prices?</t>
+          <t>MRI body scan and metal dust (?) in lungs.</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2019-03-25T15:03:31.261Z</t>
+          <t>2018-11-23T18:54:57.865Z</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/b5brav/thinking_of_moving_to_america_canada_and_trying/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/9zqy0f/how_much_should_i_be_getting_paid_uk/</t>
         </is>
       </c>
     </row>
@@ -6266,17 +6266,17 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Monday morning probing challenge...</t>
+          <t>Company looking to get a CNC mill. Got some questions.</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2022-11-21T21:32:22.410Z</t>
+          <t>2024-02-07T18:56:45.991Z</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/z1axkx/does_anyone_know_how_to_order_things_at_2013/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1alajs1/mri_body_scan_and_metal_dust_in_lungs/</t>
         </is>
       </c>
     </row>
@@ -6291,17 +6291,17 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>CAM perpetual licensing?</t>
+          <t>The definition of blind faith</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2018-09-17T09:55:40.763Z</t>
+          <t>2020-04-25T16:02:13.084Z</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/9giyu6/monday_morning_probing_challenge/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/g7vvuv/company_looking_to_get_a_cnc_mill_got_some/</t>
         </is>
       </c>
     </row>
@@ -6316,17 +6316,17 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Been working with daewoo fanuc mills my whole career and now I get to use this new DMG with all options included. This is a whole new world! Damn this machine is good! :)</t>
+          <t>Spindle encoder not working</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2018-12-05T12:22:24.277Z</t>
+          <t>2023-07-09T14:56:38.756Z</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/a3bt3x/cam_perpetual_licensing/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/14v0mb7/the_definition_of_blind_faith/</t>
         </is>
       </c>
     </row>
@@ -6341,17 +6341,17 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Probe issue - What am I missing here?</t>
+          <t>Issue with Clarke CL300 mini lathe</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2013-12-10T21:37:21.411Z</t>
+          <t>2021-02-01T02:01:13.725Z</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1skvm5/been_working_with_daewoo_fanuc_mills_my_whole/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/l9s09a/spindle_encoder_not_working/</t>
         </is>
       </c>
     </row>
@@ -6366,17 +6366,17 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>(EUROPE) Start-up company looking for a new CNC mill</t>
+          <t>Thinking of moving to America/ Canada and trying to way up the pros and cons</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2024-02-15T15:13:20.604Z</t>
+          <t>2024-09-04T18:21:58.043Z</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1arhncj/probe_issue_what_am_i_missing_here/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1f90kns/issue_with_clarke_cl300_mini_lathe/</t>
         </is>
       </c>
     </row>
@@ -6391,17 +6391,17 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Help with SolidCAM 2023</t>
+          <t>My view from my hotel room that I have for the DMG MORI open Haus in Pfronten, Germany :D Hyped for it!</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2018-02-25T11:52:52.518Z</t>
+          <t>2019-03-25T15:03:31.261Z</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/80416l/europe_startup_company_looking_for_a_new_cnc_mill/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/b5brav/thinking_of_moving_to_america_canada_and_trying/</t>
         </is>
       </c>
     </row>
@@ -6416,17 +6416,17 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Paintball marker I milled for a friend</t>
+          <t>Monday morning probing challenge...</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2024-06-19T18:37:48.716Z</t>
+          <t>2022-05-08T11:43:07.650Z</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/1djqij6/help_with_solidcam_2023/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/ukzy5r/my_view_from_my_hotel_room_that_i_have_for_the/</t>
         </is>
       </c>
     </row>
@@ -6441,17 +6441,17 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Help me pick a VMC</t>
+          <t>Is Haas Really That Bad?</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2015-02-19T23:38:59.125Z</t>
+          <t>2018-09-17T09:55:40.763Z</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/2whl0v/paintball_marker_i_milled_for_a_friend/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/9giyu6/monday_morning_probing_challenge/</t>
         </is>
       </c>
     </row>
@@ -6466,17 +6466,17 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Retrofitting an emcoturn 340 lathe</t>
+          <t>Been working with daewoo fanuc mills my whole career and now I get to use this new DMG with all options included. This is a whole new world! Damn this machine is good! :)</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2016-05-09T22:37:00.231Z</t>
+          <t>2023-08-02T17:22:10.371Z</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/4im5ug/help_me_pick_a_vmc/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/15gewpf/is_haas_really_that_bad/</t>
         </is>
       </c>
     </row>
@@ -6491,17 +6491,17 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Feel like I'm hacking a fallout terminal</t>
+          <t>CATIA &amp; tebis</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2020-09-22T17:32:10.718Z</t>
+          <t>2013-12-10T21:37:21.411Z</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/ixs2e6/retrofitting_an_emcoturn_340_lathe/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1skvm5/been_working_with_daewoo_fanuc_mills_my_whole/</t>
         </is>
       </c>
     </row>
@@ -6516,17 +6516,17 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Cnc control advice</t>
+          <t>(EUROPE) Start-up company looking for a new CNC mill</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2020-08-21T11:42:11.217Z</t>
+          <t>2024-01-27T12:59:31.325Z</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/idv5nq/feel_like_im_hacking_a_fallout_terminal/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/1acab96/catia_tebis/</t>
         </is>
       </c>
     </row>
@@ -6541,17 +6541,17 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>German 5 axis CNC companies. Need urgent suggestions .</t>
+          <t>When I take a step back and look at it, I can't believe I control this thing. Only one year ago, I was making a christmas ornament for this company as a fun project. Now in my second year, I make the company actual money making parts. I'm only an apprentice, the world is mine.</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2018-06-08T19:06:02.052Z</t>
+          <t>2018-02-25T11:52:52.518Z</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/8pmm8d/cnc_control_advice/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/80416l/europe_startup_company_looking_for_a_new_cnc_mill/</t>
         </is>
       </c>
     </row>
@@ -6566,17 +6566,17 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>SRCI open source interface</t>
+          <t>PLC robot controller for any user-defined custom articulated robot (robot arm)</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2020-08-06T10:10:35.941Z</t>
+          <t>2022-07-29T15:36:51.785Z</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/i4p43i/how_generate_trajectory_for_delta_robot_using_ros/</t>
+          <t>https://www.reddit.com/r/robotics/comments/wb7xkz/siemens_and_german_artiminds_have_developed/</t>
         </is>
       </c>
     </row>
@@ -6591,17 +6591,17 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Siemens and German ArtiMinds have developed software prototype for self-learning robots</t>
+          <t>How Siemens designed a disinfection robot in 1 week - Robot Enthusiast</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>2024-11-20T14:17:42.669Z</t>
+          <t>2023-09-24T02:36:00.274Z</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1gvqi1q/srci_open_source_interface/</t>
+          <t>https://www.reddit.com/r/robotics/comments/16qmate/plc_robot_controller_for_any_userdefined_custom/</t>
         </is>
       </c>
     </row>
@@ -6616,17 +6616,17 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>CAD software with the easiest learning curve</t>
+          <t>What would be the most advanced motion controller out there in terms of programmability/capability?</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2022-07-29T15:36:51.785Z</t>
+          <t>2020-05-03T03:06:29.417Z</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/wb7xkz/siemens_and_german_artiminds_have_developed/</t>
+          <t>https://www.reddit.com/r/robotics/comments/gcjgtn/how_siemens_designed_a_disinfection_robot_in_1/</t>
         </is>
       </c>
     </row>
@@ -6641,17 +6641,17 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Top 10 Robotics Companies in the World | Analytics Insight</t>
+          <t>[N] Corindus Vascular Robotics to be acquired by Siemens for $1.1B</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2024-09-05T13:37:13.043Z</t>
+          <t>2024-05-04T17:46:43.013Z</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1f9mp81/cad_software_with_the_easiest_learning_curve/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1ck617k/what_would_be_the_most_advanced_motion_controller/</t>
         </is>
       </c>
     </row>
@@ -6666,17 +6666,17 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>PLC robot controller for any user-defined custom articulated robot (robot arm)</t>
+          <t>CAD software with the easiest learning curve</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2018-06-12T05:18:19.827Z</t>
+          <t>2019-08-08T13:23:09.016Z</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/8qgdn1/top_10_robotics_companies_in_the_world_analytics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/cnlpmd/n_corindus_vascular_robotics_to_be_acquired_by/</t>
         </is>
       </c>
     </row>
@@ -6691,17 +6691,17 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>How Siemens designed a disinfection robot in 1 week - Robot Enthusiast</t>
+          <t>RM solves the "Siemens Learning Challenge"</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>2023-09-24T02:36:00.274Z</t>
+          <t>2024-09-05T13:37:13.043Z</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/16qmate/plc_robot_controller_for_any_userdefined_custom/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1f9mp81/cad_software_with_the_easiest_learning_curve/</t>
         </is>
       </c>
     </row>
@@ -6716,17 +6716,17 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>How hard would it be to build a pneumatic automated machine for someone with no engineering background?</t>
+          <t>Preferred Actuator Hardware</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>2020-05-03T03:06:29.417Z</t>
+          <t>2019-01-30T22:21:02.309Z</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/gcjgtn/how_siemens_designed_a_disinfection_robot_in_1/</t>
+          <t>https://www.reddit.com/r/robotics/comments/alial2/rm_solves_the_siemens_learning_challenge/</t>
         </is>
       </c>
     </row>
@@ -6741,17 +6741,17 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>RM solves the "Siemens Learning Challenge"</t>
+          <t>‘Robotics and automation will play a key role for UK manufacturers,’ says Siemens</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>2024-10-15T04:35:26.736Z</t>
+          <t>2021-04-02T15:03:21.983Z</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1g3zr9h/how_hard_would_it_be_to_build_a_pneumatic/</t>
+          <t>https://www.reddit.com/r/robotics/comments/mim5q7/preferred_actuator_hardware/</t>
         </is>
       </c>
     </row>
@@ -6766,17 +6766,17 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[N] Corindus Vascular Robotics to be acquired by Siemens for $1.1B</t>
+          <t>OnRobot gripper</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>2019-01-30T22:21:02.309Z</t>
+          <t>2016-09-28T23:32:34.296Z</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/alial2/rm_solves_the_siemens_learning_challenge/</t>
+          <t>https://www.reddit.com/r/robotics/comments/54zc3e/robotics_and_automation_will_play_a_key_role_for/</t>
         </is>
       </c>
     </row>
@@ -6791,17 +6791,17 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>‘Robotics and automation will play a key role for UK manufacturers,’ says Siemens</t>
+          <t>Craig Kielburger robotics club gets funding boost from Siemens</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>2019-08-08T13:23:09.016Z</t>
+          <t>2021-08-16T05:13:32.307Z</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/cnlpmd/n_corindus_vascular_robotics_to_be_acquired_by/</t>
+          <t>https://www.reddit.com/r/robotics/comments/p59kkw/onrobot_gripper/</t>
         </is>
       </c>
     </row>
@@ -6816,17 +6816,17 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Where are robot arms typically housing their rotary encoders? (before or after the gearbox)</t>
+          <t>For anyone in robotics/similar field: What did you do to land you first job in that field?</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2016-09-28T23:32:34.296Z</t>
+          <t>2016-02-02T06:45:43.439Z</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/54zc3e/robotics_and_automation_will_play_a_key_role_for/</t>
+          <t>https://www.reddit.com/r/robotics/comments/43t3m6/craig_kielburger_robotics_club_gets_funding_boost/</t>
         </is>
       </c>
     </row>
@@ -6841,17 +6841,17 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Craig Kielburger robotics club gets funding boost from Siemens</t>
+          <t>How hard would it be to build a pneumatic automated machine for someone with no engineering background?</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2023-04-07T08:41:38.331Z</t>
+          <t>2024-08-12T12:52:33.919Z</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/12eejo2/where_are_robot_arms_typically_housing_their/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1eqcx27/for_anyone_in_roboticssimilar_field_what_did_you/</t>
         </is>
       </c>
     </row>
@@ -6866,17 +6866,17 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Robotics jobs - recession proof</t>
+          <t>SRCI open source interface</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>2016-02-02T06:45:43.439Z</t>
+          <t>2024-10-15T04:35:26.736Z</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/43t3m6/craig_kielburger_robotics_club_gets_funding_boost/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1g3zr9h/how_hard_would_it_be_to_build_a_pneumatic/</t>
         </is>
       </c>
     </row>
@@ -6896,12 +6896,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>2023-03-25T07:06:26.673Z</t>
+          <t>2024-11-20T14:17:42.669Z</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/121dx9p/robotics_jobs_recession_proof/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1gvqi1q/srci_open_source_interface/</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>laptop requirements for a student who will be learning A.I. and robotics</t>
+          <t>Real time robot control from Unreal Engine</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6946,12 +6946,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>2022-07-30T19:07:39.393Z</t>
+          <t>2024-12-12T14:48:09.930Z</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/wc4vkr/laptop_requirements_for_a_student_who_will_be/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1hcmo2p/real_time_robot_control_from_unreal_engine/</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>What tools are mainly used in the industry today?</t>
+          <t>Robotics jobs - recession proof</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6996,12 +6996,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>2022-01-22T12:13:51.512Z</t>
+          <t>2023-03-25T07:06:26.673Z</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/sa1996/what_tools_are_mainly_used_in_the_industry_today/</t>
+          <t>https://www.reddit.com/r/robotics/comments/121dx9p/robotics_jobs_recession_proof/</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Please help with ABB IRB6600</t>
+          <t>Why don't Boston Dynamics write academic papers?</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7046,12 +7046,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>2024-01-16T07:59:58.980Z</t>
+          <t>2020-04-13T13:46:24.112Z</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/197xmv3/please_help_with_abb_irb6600/</t>
+          <t>https://www.reddit.com/r/robotics/comments/g0j8jl/why_dont_boston_dynamics_write_academic_papers/</t>
         </is>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Fundamental Skills in Robotics?</t>
+          <t>Where are robot arms typically housing their rotary encoders? (before or after the gearbox)</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7096,12 +7096,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>2022-07-04T20:48:05.501Z</t>
+          <t>2023-04-07T08:41:38.331Z</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/vrgz8g/fundamental_skills_in_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/12eejo2/where_are_robot_arms_typically_housing_their/</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Industrail Robot Language Failure</t>
+          <t>Please help with ABB IRB6600</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7141,17 +7141,17 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>OnRobot gripper</t>
+          <t>How Generate trajectory for delta robot using ROS?</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>2024-07-10T13:27:46.793Z</t>
+          <t>2024-01-16T07:59:58.980Z</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1dzvs6d/industrail_robot_language_failure/</t>
+          <t>https://www.reddit.com/r/robotics/comments/197xmv3/please_help_with_abb_irb6600/</t>
         </is>
       </c>
     </row>
@@ -7166,17 +7166,17 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Scope of Soft Robotics</t>
+          <t>laptop requirements for a student who will be learning A.I. and robotics</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>2021-08-16T05:13:32.307Z</t>
+          <t>2020-08-06T10:10:35.941Z</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/p59kkw/onrobot_gripper/</t>
+          <t>https://www.reddit.com/r/robotics/comments/i4p43i/how_generate_trajectory_for_delta_robot_using_ros/</t>
         </is>
       </c>
     </row>
@@ -7191,17 +7191,17 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Robot PLC communication</t>
+          <t>Advice on my current degree and career in robotics?</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2021-07-03T17:33:28.954Z</t>
+          <t>2022-07-30T19:07:39.393Z</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/od2j07/scope_of_soft_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/wc4vkr/laptop_requirements_for_a_student_who_will_be/</t>
         </is>
       </c>
     </row>
@@ -7216,17 +7216,17 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Things I can do to get a career in robotics after college?</t>
+          <t>PLC for controlling</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>2022-01-06T13:44:06.476Z</t>
+          <t>2018-01-13T02:57:05.982Z</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/rxex0b/robot_plc_communication/</t>
+          <t>https://www.reddit.com/r/robotics/comments/7q1wim/advice_on_my_current_degree_and_career_in_robotics/</t>
         </is>
       </c>
     </row>
@@ -7241,17 +7241,17 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Can a computer engineer degree get me into robotics?</t>
+          <t>I need a brushless DC motor with a resolver and a mass on the motor shaft. Any ideas where to get one cheaply?</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>2018-09-12T18:53:46.874Z</t>
+          <t>2024-03-21T08:46:02.799Z</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9fajvm/things_i_can_do_to_get_a_career_in_robotics_after/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1bk1x90/plc_for_controlling/</t>
         </is>
       </c>
     </row>
@@ -7266,17 +7266,17 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Advice on my current degree and career in robotics?</t>
+          <t>Looking to invest in Robotics.</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>2020-04-14T11:17:19.082Z</t>
+          <t>2016-06-02T16:57:34.330Z</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/g13p5v/can_a_computer_engineer_degree_get_me_into/</t>
+          <t>https://www.reddit.com/r/robotics/comments/4m854y/i_need_a_brushless_dc_motor_with_a_resolver_and_a/</t>
         </is>
       </c>
     </row>
@@ -7296,12 +7296,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>2018-01-13T02:57:05.982Z</t>
+          <t>2024-12-07T16:51:48.870Z</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/7q1wim/advice_on_my_current_degree_and_career_in_robotics/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1h8wmji/looking_to_invest_in_robotics/</t>
         </is>
       </c>
     </row>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>NVIDIA CEO Bets Big On Robots, Calls Them 'The Next Wave of AI'</t>
+          <t>What tools are mainly used in the industry today?</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7341,17 +7341,17 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>How do I gain an entry into autonomous vehicle industry</t>
+          <t>Revolutionizing Automation and Human Interaction: Amazon Unveils Playful New Robots</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>2024-06-06T11:13:17.579Z</t>
+          <t>2022-01-22T12:13:51.512Z</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1d9fnj0/nvidia_ceo_bets_big_on_robots_calls_them_the_next/</t>
+          <t>https://www.reddit.com/r/robotics/comments/sa1996/what_tools_are_mainly_used_in_the_industry_today/</t>
         </is>
       </c>
     </row>
@@ -7366,17 +7366,17 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Help Needed with ROS: Developing a Web App to Control a ROS-Enabled Rover Remotely</t>
+          <t>New atlas ( Boston Dynamics )</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>2021-05-22T14:00:06.428Z</t>
+          <t>2023-06-27T21:12:44.804Z</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/nij8i6/how_do_i_gain_an_entry_into_autonomous_vehicle/</t>
+          <t>https://www.reddit.com/r/robotics/comments/14kpq0e/revolutionizing_automation_and_human_interaction/</t>
         </is>
       </c>
     </row>
@@ -7391,17 +7391,17 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>I need a brushless DC motor with a resolver and a mass on the motor shaft. Any ideas where to get one cheaply?</t>
+          <t>Fundamental Skills in Robotics?</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>2024-06-13T19:05:01.321Z</t>
+          <t>2024-07-27T14:49:13.900Z</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1df6vp2/help_needed_with_ros_developing_a_web_app_to/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1edi3cm/new_atlas_boston_dynamics/</t>
         </is>
       </c>
     </row>
@@ -7416,17 +7416,17 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Can anyone help me with this issue?</t>
+          <t>Which architectures should I be targeting when writing code if I want to do "proper" robotics?</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>2016-06-02T16:57:34.330Z</t>
+          <t>2022-07-04T20:48:05.501Z</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/4m854y/i_need_a_brushless_dc_motor_with_a_resolver_and_a/</t>
+          <t>https://www.reddit.com/r/robotics/comments/vrgz8g/fundamental_skills_in_robotics/</t>
         </is>
       </c>
     </row>
@@ -7441,17 +7441,17 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>What is the high level architecture for communication between different subsystems in a production or high-speed system?</t>
+          <t>Automatic drink mixer (for bars)</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>2023-11-17T23:15:38.365Z</t>
+          <t>2024-11-29T06:19:53.125Z</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/17xs2uv/can_anyone_help_me_with_this_issue/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1h2fgoe/which_architectures_should_i_be_targeting_when/</t>
         </is>
       </c>
     </row>
@@ -7466,17 +7466,17 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Id like to buy stocks in a robotic company. What’s the company you think will be have the biggest impact in robotics in the next 10 years?</t>
+          <t>How do I gain an entry into autonomous vehicle industry</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>2021-05-23T17:32:56.617Z</t>
+          <t>2023-05-04T04:30:08.478Z</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/njclw9/what_is_the_high_level_architecture_for/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1379xbl/automatic_drink_mixer_for_bars/</t>
         </is>
       </c>
     </row>
@@ -7491,17 +7491,17 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>ABB Rapid % help</t>
+          <t>Scope of Soft Robotics</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>2023-05-25T00:45:38.126Z</t>
+          <t>2021-05-22T14:00:06.428Z</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/13r370n/id_like_to_buy_stocks_in_a_robotic_company_whats/</t>
+          <t>https://www.reddit.com/r/robotics/comments/nij8i6/how_do_i_gain_an_entry_into_autonomous_vehicle/</t>
         </is>
       </c>
     </row>
@@ -7516,17 +7516,17 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Stepper Motor Dynamic Microstepping: has it been done? Is it useful?</t>
+          <t>Can a computer engineer degree get me into robotics?</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>2022-11-23T08:20:01.057Z</t>
+          <t>2021-07-03T17:33:28.954Z</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/z2jjqo/abb_rapid_help/</t>
+          <t>https://www.reddit.com/r/robotics/comments/od2j07/scope_of_soft_robotics/</t>
         </is>
       </c>
     </row>
@@ -7541,17 +7541,17 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Which bachelor's is best to start with to get into robotics?</t>
+          <t>How my internship changed my view on robotics and for people who want to study</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>2022-02-13T22:55:37.398Z</t>
+          <t>2020-04-14T11:17:19.082Z</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/srvfye/stepper_motor_dynamic_microstepping_has_it_been/</t>
+          <t>https://www.reddit.com/r/robotics/comments/g13p5v/can_a_computer_engineer_degree_get_me_into/</t>
         </is>
       </c>
     </row>
@@ -7566,17 +7566,17 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>I want to build a quadropedal Robot with Servos</t>
+          <t>Why Linux for Robotics?</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>2015-03-15T07:04:08.496Z</t>
+          <t>2023-08-29T09:40:43.099Z</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/2z3qnn/which_bachelors_is_best_to_start_with_to_get_into/</t>
+          <t>https://www.reddit.com/r/robotics/comments/164dtzc/how_my_internship_changed_my_view_on_robotics_and/</t>
         </is>
       </c>
     </row>
@@ -7591,17 +7591,17 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>[Question] Which programming language is widely used in robotics programming? Which courses should I opt for as a mechanical engineering graduate?</t>
+          <t>30 or so axis CNC controller</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>2018-11-10T00:25:15.595Z</t>
+          <t>2023-11-27T09:02:40.016Z</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/9vpv8z/i_want_to_build_a_quadropedal_robot_with_servos/</t>
+          <t>https://www.reddit.com/r/robotics/comments/184ypo9/why_linux_for_robotics/</t>
         </is>
       </c>
     </row>
@@ -7616,17 +7616,17 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Staubli RX130</t>
+          <t>What algorithm do servos use internally to move and maintain position?</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2019-09-08T08:33:47.802Z</t>
+          <t>2022-06-24T13:47:33.138Z</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/d18fxd/question_which_programming_language_is_widely/</t>
+          <t>https://www.reddit.com/r/robotics/comments/vjov5k/30_or_so_axis_cnc_controller/</t>
         </is>
       </c>
     </row>
@@ -7641,17 +7641,17 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>A friend and I built this hand for the ARM Challenge.</t>
+          <t>[Question] Which programming language is widely used in robotics programming? Which courses should I opt for as a mechanical engineering graduate?</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>2024-07-30T00:12:44.842Z</t>
+          <t>2023-05-21T13:01:58.562Z</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1effbd4/staubli_rx130/</t>
+          <t>https://www.reddit.com/r/robotics/comments/13nssyi/what_algorithm_do_servos_use_internally_to_move/</t>
         </is>
       </c>
     </row>
@@ -7666,17 +7666,17 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>We've created a open source Gazebo alternative that is much easier and more efficient to develop simulations.</t>
+          <t>Active Ball Joint Mechanism With Three-DoF Based on Spherical Gear Meshings</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>2024-04-24T07:27:33.544Z</t>
+          <t>2019-09-08T08:33:47.802Z</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1cbs8sh/a_friend_and_i_built_this_hand_for_the_arm/</t>
+          <t>https://www.reddit.com/r/robotics/comments/d18fxd/question_which_programming_language_is_widely/</t>
         </is>
       </c>
     </row>
@@ -7691,17 +7691,17 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>How do I set stepper motor speed using PID control?</t>
+          <t>US's Boston Dynamic Robot Dog ($75,000) vs China's Unitree Robot Dog ($2700).</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2021-06-03T16:56:56.858Z</t>
+          <t>2021-08-02T20:59:19.551Z</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/nri7ed/weve_created_a_open_source_gazebo_alternative/</t>
+          <t>https://www.reddit.com/r/robotics/comments/ownqli/active_ball_joint_mechanism_with_threedof_based/</t>
         </is>
       </c>
     </row>
@@ -7716,17 +7716,17 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>I need info about this servotronix driver</t>
+          <t>Stepper Motor Dynamic Microstepping: has it been done? Is it useful?</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>2022-04-12T16:45:10.254Z</t>
+          <t>2024-07-02T23:16:12.331Z</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/u23hvu/how_do_i_set_stepper_motor_speed_using_pid_control/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1dtzncy/uss_boston_dynamic_robot_dog_75000_vs_chinas/</t>
         </is>
       </c>
     </row>
@@ -7741,17 +7741,17 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>How my internship changed my view on robotics and for people who want to study</t>
+          <t>Releasing Kosti-1 + How to Design Your Own Robot Arm From Scratch</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>2024-02-28T08:07:26.378Z</t>
+          <t>2022-02-13T22:55:37.398Z</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1b20thz/i_need_info_about_this_servotronix_driver/</t>
+          <t>https://www.reddit.com/r/robotics/comments/srvfye/stepper_motor_dynamic_microstepping_has_it_been/</t>
         </is>
       </c>
     </row>
@@ -7766,17 +7766,17 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>12V 60A sin/cos compatible 3ph motor position controller options/alternatives (VESC, ODrive, etc)</t>
+          <t>Staubli RX130</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>2023-08-29T09:40:43.099Z</t>
+          <t>2023-07-30T21:31:59.001Z</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/164dtzc/how_my_internship_changed_my_view_on_robotics_and/</t>
+          <t>https://www.reddit.com/r/robotics/comments/15dx5fs/releasing_kosti1_how_to_design_your_own_robot_arm/</t>
         </is>
       </c>
     </row>
@@ -7791,17 +7791,17 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Is there a method or tool I can use to get this bearing down the shaft? It's a perfect fit so I can't push the bearing down without breaking the 3d printed part</t>
+          <t>We've created a open source Gazebo alternative that is much easier and more efficient to develop simulations.</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>2024-11-07T02:25:25.742Z</t>
+          <t>2024-07-30T00:12:44.842Z</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/1glg2w5/12v_60a_sincos_compatible_3ph_motor_position/</t>
+          <t>https://www.reddit.com/r/robotics/comments/1effbd4/staubli_rx130/</t>
         </is>
       </c>
     </row>
@@ -7816,17 +7816,17 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Releasing Kosti-1 + How to Design Your Own Robot Arm From Scratch</t>
+          <t>ABB Rapid % help</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>2022-12-04T01:10:21.897Z</t>
+          <t>2021-06-03T16:56:56.858Z</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/zbwd6q/is_there_a_method_or_tool_i_can_use_to_get_this/</t>
+          <t>https://www.reddit.com/r/robotics/comments/nri7ed/weve_created_a_open_source_gazebo_alternative/</t>
         </is>
       </c>
     </row>
@@ -7841,17 +7841,17 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Telescopic linear slide forearm, based on a fire-engine-telescopic-ladder, just publishing to make it CC0, so no one can patent it!</t>
+          <t>Gcode robot movement. ABB IRB4400</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>2023-07-30T21:31:59.001Z</t>
+          <t>2022-11-23T08:20:01.057Z</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/robotics/comments/15dx5fs/releasing_kosti1_how_to_design_your_own_robot_arm/</t>
+          <t>https://www.reddit.com/r/robotics/comments/z2jjqo/abb_rapid_help/</t>
         </is>
       </c>
     </row>
@@ -7866,15 +7866,90 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>What algorithm do servos use internally to move and maintain position?</t>
+          <t>Magnetic encoder accuracy</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
+          <t>2023-05-02T10:59:39.264Z</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/135hrau/gcode_robot_movement_abb_irb4400/</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Is it okay to use the PWM protocol over SPI here for the AS-5048 magnetic encoder. This will be used in a robot dog so the speed is not too serious. There will be many of these encoders going to a uC (ESP 32)</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2021-12-12T19:38:37.961Z</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/rewh8m/magnetic_encoder_accuracy/</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Telescopic linear slide forearm, based on a fire-engine-telescopic-ladder, just publishing to make it CC0, so no one can patent it!</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2021-02-08T09:59:09.303Z</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/robotics/comments/lf8og2/is_it_okay_to_use_the_pwm_protocol_over_spi_here/</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>robotics</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Is this a …servo?</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
           <t>2023-09-18T07:30:07.570Z</t>
         </is>
       </c>
-      <c r="E298" t="inlineStr">
+      <c r="E301" t="inlineStr">
         <is>
           <t>https://www.reddit.com/r/robotics/comments/16loulk/telescopic_linear_slide_forearm_based_on_a/</t>
         </is>
